--- a/Transcom-Tagamo3-DataBase/ReadyToSend/Daily_Schedule/Dec-2025/جدول التجمع يوم 4-12-2025.xlsx
+++ b/Transcom-Tagamo3-DataBase/ReadyToSend/Daily_Schedule/Dec-2025/جدول التجمع يوم 4-12-2025.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Daily Report Data" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Report Data'!$A$1:$H$760</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Report Data'!$A$1:$H$762</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="713">
   <si>
     <t>بدايةالشيفت</t>
   </si>
@@ -1864,6 +1864,9 @@
     <t>عائشه محمد</t>
   </si>
   <si>
+    <t>يوسف قاسم</t>
+  </si>
+  <si>
     <t>249122099066/1551258200</t>
   </si>
   <si>
@@ -2029,6 +2032,9 @@
     <t>Estance John (استانس جون)</t>
   </si>
   <si>
+    <t>OFF</t>
+  </si>
+  <si>
     <t>مصطفى عبد الباسط</t>
   </si>
   <si>
@@ -2087,6 +2093,9 @@
   </si>
   <si>
     <t>محمد نادر عوض</t>
+  </si>
+  <si>
+    <t>مصطفى حازم</t>
   </si>
   <si>
     <t>كشك اللحمه</t>
@@ -2412,7 +2421,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2446,6 +2455,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2787,7 +2802,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2811,16 +2826,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2829,85 +2844,85 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
@@ -2921,7 +2936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3004,13 +3019,19 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5510,611 +5531,611 @@
     </dxf>
   </dxfs>
   <tableStyles count="152" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{F428DB8D-25A0-4FC5-AB75-09BE26CF586D}">
+    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{2D506D6A-D5F3-4B74-B90A-A4699515FA7C}">
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{34D725A9-936D-4473-97FF-B550ADA9B8D6}">
+    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{C8510697-CA67-46C6-88D5-ACE4A31E1CFF}">
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{306786EF-1C06-41BC-85A3-0381562F5CA0}">
+    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{01EA5C73-A060-4E40-9143-F1ED88EC3FFC}">
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{6A7A72D8-78FC-49AC-9F27-63D563814470}">
+    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{D7A46658-2FDF-48DF-80E7-661157853F38}">
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
       <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{2905AE37-7165-48B0-BFDA-D528DAFAC453}">
+    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{D5618099-DB48-4E46-9354-4355E7E170D2}">
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
       <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{163E8E22-D122-47BB-B33E-C5AD8AED7C70}">
+    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{52198972-FC15-468D-8C1F-43E55D876FB6}">
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{A8912EC5-35AE-4A41-9BE7-FE11116FB1F1}">
+    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{8B03C8B0-10BC-42F1-8DA4-1345E2B669AB}">
       <tableStyleElement type="firstRowStripe" dxfId="13"/>
       <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{8A6AEAD4-AD69-4243-830D-67C960CB7831}">
+    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{179DF92A-F8F7-49F4-B46A-C45075FF7079}">
       <tableStyleElement type="firstRowStripe" dxfId="15"/>
       <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{90E0F623-DBE8-4D0E-A42D-69E5DDC51BA9}">
+    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{A219D7E9-F104-4599-8093-A71F1C3AA767}">
       <tableStyleElement type="firstRowStripe" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{A87A8667-439E-415A-8159-A79D3F1DA01F}">
+    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{B3275E43-50E7-4718-A39C-68F7110EB00A}">
       <tableStyleElement type="firstRowStripe" dxfId="19"/>
       <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{6C1C3C3A-EDCC-4D13-8973-200F790BA9E6}">
+    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{CA67A4C4-3ECA-45FC-A400-8AB070DE475D}">
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
       <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{9B57228D-1917-4CD8-8FEC-B1AB38BFDA87}">
+    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{4425655B-E156-4E3F-A5F2-C4DC1EAE57FC}">
       <tableStyleElement type="firstRowStripe" dxfId="23"/>
       <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{16392C7A-ED9D-418E-96B6-34056B908257}">
+    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{8D2CCADB-F1B2-46B2-96AD-83B7E4506FB3}">
       <tableStyleElement type="firstRowStripe" dxfId="25"/>
       <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{F5651C3E-8616-48FC-B6F4-5F53EF0E2554}">
+    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{B75B1182-9E46-4BB3-8D14-2AE3009B3EDD}">
       <tableStyleElement type="firstRowStripe" dxfId="27"/>
       <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{67D3D3AA-8036-43FD-B7EB-BB3621AAE4CA}">
+    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{9ADB2615-024A-4133-A7A6-A6AABFFC824C}">
       <tableStyleElement type="firstRowStripe" dxfId="29"/>
       <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{62301E16-085C-4F10-BBF3-86278C411B34}">
+    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{F7FC672B-8666-4B69-98C0-2B27101563E1}">
       <tableStyleElement type="firstRowStripe" dxfId="31"/>
       <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{9C406260-6BCC-40D0-AA17-46DAD3530A31}">
+    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{CE170F21-B679-45FD-9FF0-13F20298C20E}">
       <tableStyleElement type="firstRowStripe" dxfId="33"/>
       <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{ACC4711D-8CD4-4BCA-B64D-132CF2D0D170}">
+    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{06432C9A-A67F-4B73-B53B-BD0AE7ADAF38}">
       <tableStyleElement type="firstRowStripe" dxfId="35"/>
       <tableStyleElement type="secondRowStripe" dxfId="34"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{333D49FB-FF70-4169-8195-63D5D1F6EBC4}">
+    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{31E68944-BF80-4E5B-8FC2-997F4418F839}">
       <tableStyleElement type="firstRowStripe" dxfId="37"/>
       <tableStyleElement type="secondRowStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{93788A59-5468-4D3F-8B63-02E0711FD1BA}">
+    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{0F223190-2F31-4370-81E1-A6ACEA24488D}">
       <tableStyleElement type="firstRowStripe" dxfId="39"/>
       <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{2845939C-640E-47DA-9483-8749EE596F14}">
+    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{D0EC9650-4686-4B0E-B3C6-3BE567C555B5}">
       <tableStyleElement type="firstRowStripe" dxfId="41"/>
       <tableStyleElement type="secondRowStripe" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{33C8FE9A-15F4-4CEC-AD83-DF33549A6C12}">
+    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{003466A8-6F54-4493-A3A5-199D13F55793}">
       <tableStyleElement type="firstRowStripe" dxfId="43"/>
       <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{D3CF0F10-4F66-498A-A073-E01F24053B23}">
+    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{01D3C1AF-8C59-4C77-AA1A-A87C2F16470E}">
       <tableStyleElement type="firstRowStripe" dxfId="45"/>
       <tableStyleElement type="secondRowStripe" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{3FA9AE3E-5DBE-4B98-A6B7-AF0C05D117C2}">
+    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{7E09C818-51A1-4DED-964F-48E9E4F44735}">
       <tableStyleElement type="firstRowStripe" dxfId="47"/>
       <tableStyleElement type="secondRowStripe" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{1EBE4F16-EB97-43E3-8B7A-5E7CC39C8EF3}">
+    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{D3F283F8-0A07-4E78-9690-53B4BD15BFD7}">
       <tableStyleElement type="firstRowStripe" dxfId="49"/>
       <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{A53B2B2F-A623-4FAA-A171-447ECECCC8A4}">
+    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{6EBAAC51-F522-4611-9CF4-57CE4B2336A2}">
       <tableStyleElement type="firstRowStripe" dxfId="51"/>
       <tableStyleElement type="secondRowStripe" dxfId="50"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{DE93E343-5059-4D4A-BF2A-C813F9090AD0}">
+    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{4A7D3469-03A5-4044-B8F8-F6BA77B0288B}">
       <tableStyleElement type="firstRowStripe" dxfId="53"/>
       <tableStyleElement type="secondRowStripe" dxfId="52"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{4EE67AD4-6EC1-4A86-9A61-D2CB146E2C34}">
+    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{D3ADB96F-952D-493A-82AC-99E562EFA3B6}">
       <tableStyleElement type="firstRowStripe" dxfId="55"/>
       <tableStyleElement type="secondRowStripe" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{52164C9A-8D4A-4DD8-891E-0A2783E1983D}">
+    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{DF37EC87-815C-44B6-82D0-74EC689674FC}">
       <tableStyleElement type="firstRowStripe" dxfId="57"/>
       <tableStyleElement type="secondRowStripe" dxfId="56"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{9D8DFFEE-3C0A-44BE-BC13-1D0ED8DFD8C9}">
+    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{6BA34CF8-F7D0-4406-B239-E388658A7512}">
       <tableStyleElement type="firstRowStripe" dxfId="59"/>
       <tableStyleElement type="secondRowStripe" dxfId="58"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{F49638A9-6D1A-44B0-B78D-5604EE336B73}">
+    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{A62D8B33-B8C3-46B1-9884-7D6BF0E5F1F0}">
       <tableStyleElement type="firstRowStripe" dxfId="61"/>
       <tableStyleElement type="secondRowStripe" dxfId="60"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{4C706E85-7C7C-47AC-B021-61E9FF5A2FF1}">
+    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{CAD2B710-D7DE-4BE2-B3DF-72CC850C4273}">
       <tableStyleElement type="firstRowStripe" dxfId="63"/>
       <tableStyleElement type="secondRowStripe" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{C9911D40-8681-4512-999C-1CDADC7BDCB1}">
+    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{72CB871D-A073-447B-99F2-8973C730664C}">
       <tableStyleElement type="firstRowStripe" dxfId="65"/>
       <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{C8EBDEE1-8684-4875-A055-5DC5ED659AA7}">
+    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{A9C3770E-0E88-4AEB-9F8C-DDA74579075D}">
       <tableStyleElement type="firstRowStripe" dxfId="67"/>
       <tableStyleElement type="secondRowStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{06E03D5F-0664-4397-876F-040EB6B40A10}">
+    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{DF51E27D-E92C-45FB-814D-753EDBCF99C5}">
       <tableStyleElement type="firstRowStripe" dxfId="69"/>
       <tableStyleElement type="secondRowStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{2CF0E3B4-4170-46C1-BD86-3B995C23BBCE}">
+    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{3743A125-181A-4071-96C6-E7927BA60369}">
       <tableStyleElement type="firstRowStripe" dxfId="71"/>
       <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{AF231138-8C0E-4A54-9ADA-B2723A616E30}">
+    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{2AA64599-A7D3-4BF5-B116-BFE5A947B679}">
       <tableStyleElement type="firstRowStripe" dxfId="73"/>
       <tableStyleElement type="secondRowStripe" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{D9473F1C-44B2-442C-A6EF-928A3F527522}">
+    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{E0951C3E-1A21-4A24-9C9E-A2F1DF7E3446}">
       <tableStyleElement type="firstRowStripe" dxfId="75"/>
       <tableStyleElement type="secondRowStripe" dxfId="74"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{98519D25-8FB9-4501-A562-A1159BF404F4}">
+    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{3A2C1815-69A4-4734-B55A-351B841DD8B5}">
       <tableStyleElement type="firstRowStripe" dxfId="77"/>
       <tableStyleElement type="secondRowStripe" dxfId="76"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{04B55583-2067-456A-8D75-2669B34992D7}">
+    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{967981F0-46AA-4643-9AB5-D8FD74BCCEAC}">
       <tableStyleElement type="firstRowStripe" dxfId="79"/>
       <tableStyleElement type="secondRowStripe" dxfId="78"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{DD3B7674-F8E5-4261-8318-E5857795FC8B}">
+    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{6C68D60F-FF2E-4459-A7E4-4EFFFD42C4BE}">
       <tableStyleElement type="firstRowStripe" dxfId="81"/>
       <tableStyleElement type="secondRowStripe" dxfId="80"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{6F0F633B-37CA-4091-9525-71AD08567ED3}">
+    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{0BEA89D5-8161-4D3A-A0FF-367F43163E47}">
       <tableStyleElement type="firstRowStripe" dxfId="83"/>
       <tableStyleElement type="secondRowStripe" dxfId="82"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{0B6B892D-9B5A-4679-BB2B-9AA1C553EB6F}">
+    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{3D52F922-5461-4DAD-90A2-B049B4F564FA}">
       <tableStyleElement type="firstRowStripe" dxfId="85"/>
       <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{36623E43-0C1A-4645-BD5A-887A79DA4C79}">
+    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{6EC37DD4-06AC-426D-A672-B91C4B0BE270}">
       <tableStyleElement type="firstRowStripe" dxfId="87"/>
       <tableStyleElement type="secondRowStripe" dxfId="86"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{B74B0042-6929-4275-B655-339392B3FCAE}">
+    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{6961E7E8-A581-4A1D-995D-655570681605}">
       <tableStyleElement type="firstRowStripe" dxfId="89"/>
       <tableStyleElement type="secondRowStripe" dxfId="88"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{53EA956A-A66E-49A8-9576-D16ABF78F774}">
+    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{E0AF21E0-F37D-439F-A9CD-B13DD6DC4A9D}">
       <tableStyleElement type="firstRowStripe" dxfId="91"/>
       <tableStyleElement type="secondRowStripe" dxfId="90"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{5AE5179C-BE7C-4436-A62B-B023F165513C}">
+    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{917A9C24-CB3B-4D09-BDDB-544993236966}">
       <tableStyleElement type="firstRowStripe" dxfId="93"/>
       <tableStyleElement type="secondRowStripe" dxfId="92"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{759226EA-B6C5-4811-B5EB-88CD16E36632}">
+    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{8876D70F-EB5B-475B-8C7B-DF2E192E1726}">
       <tableStyleElement type="firstRowStripe" dxfId="95"/>
       <tableStyleElement type="secondRowStripe" dxfId="94"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{BBFE0B1E-D989-4A42-9C4D-158975653FF0}">
+    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{5BAC331A-A2D4-4CCE-B0C1-E2CD30F05E35}">
       <tableStyleElement type="firstRowStripe" dxfId="97"/>
       <tableStyleElement type="secondRowStripe" dxfId="96"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{84C5339B-FF39-446C-BB77-38D2DE1C0749}">
+    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{A1983DBD-99AB-4A00-9840-8F0FDA9DDAFA}">
       <tableStyleElement type="firstRowStripe" dxfId="99"/>
       <tableStyleElement type="secondRowStripe" dxfId="98"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{11A7E645-21C3-482A-BCA4-0DFB4C6B2EF8}">
+    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{626EF42E-1360-47F1-A485-B02DA72B537C}">
       <tableStyleElement type="firstRowStripe" dxfId="101"/>
       <tableStyleElement type="secondRowStripe" dxfId="100"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{21FEB0EA-8B2F-43E6-8B25-A938319EABA8}">
+    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{51EBC019-1157-4FF3-A8D1-EF6B3ADE814C}">
       <tableStyleElement type="firstRowStripe" dxfId="103"/>
       <tableStyleElement type="secondRowStripe" dxfId="102"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{03788C3A-9664-49D9-8C4D-05B56C0E2B02}">
+    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{229BC7C7-B308-4D84-8DE3-4879216AE231}">
       <tableStyleElement type="firstRowStripe" dxfId="105"/>
       <tableStyleElement type="secondRowStripe" dxfId="104"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{5AE04C3B-9CF8-42C6-9092-E29B183B33FF}">
+    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{A67681FD-4A6C-4A47-B619-60F2071DBCCD}">
       <tableStyleElement type="firstRowStripe" dxfId="107"/>
       <tableStyleElement type="secondRowStripe" dxfId="106"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{7080A8F6-0184-4DBE-A6B2-CD2AAECAC124}">
+    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{893FEFC0-2CFA-4F19-A744-47E2F4D4BA0F}">
       <tableStyleElement type="firstRowStripe" dxfId="109"/>
       <tableStyleElement type="secondRowStripe" dxfId="108"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{D4E07A85-CC02-4629-A92B-3B8D10E6095E}">
+    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{6F50DCF2-14E8-4E57-B844-FABBE793B768}">
       <tableStyleElement type="firstRowStripe" dxfId="111"/>
       <tableStyleElement type="secondRowStripe" dxfId="110"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{5DB6D80E-94E1-4C7F-9DE5-DCC196DED9DC}">
+    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{1C8553DE-5CBF-41BE-906D-3FCDC37B3787}">
       <tableStyleElement type="firstRowStripe" dxfId="113"/>
       <tableStyleElement type="secondRowStripe" dxfId="112"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{13648580-9D4C-4DE0-A0CA-FF15D41F8AC8}">
+    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{DFBD1017-7194-43F1-AEF0-80570BF62CDD}">
       <tableStyleElement type="firstRowStripe" dxfId="115"/>
       <tableStyleElement type="secondRowStripe" dxfId="114"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{F2CF83C7-DD4B-44C7-9051-2FD797D3363B}">
+    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{9C390CB7-4B5C-4ECF-B80D-E63EDB237707}">
       <tableStyleElement type="firstRowStripe" dxfId="117"/>
       <tableStyleElement type="secondRowStripe" dxfId="116"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{F9784F1B-648E-4E85-A144-182372ABE292}">
+    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{C65DB4CE-DFC5-4390-A55E-396C08EA7ECC}">
       <tableStyleElement type="firstRowStripe" dxfId="119"/>
       <tableStyleElement type="secondRowStripe" dxfId="118"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{213DC469-B30B-4337-928A-76E4EB5778B1}">
+    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{E80A721E-C964-42DA-91F6-69699E044364}">
       <tableStyleElement type="firstRowStripe" dxfId="121"/>
       <tableStyleElement type="secondRowStripe" dxfId="120"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{0CE19DFF-F46D-4AB4-9744-9CD8A9179DAA}">
+    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{8B9CB985-71A5-4A2E-981D-7B6F5A514993}">
       <tableStyleElement type="firstRowStripe" dxfId="123"/>
       <tableStyleElement type="secondRowStripe" dxfId="122"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{DA33DE12-73D0-418A-AD1C-B0DEAB2D4C80}">
+    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{D19D0AF1-1228-4076-8ED4-9F2EE7BA0D51}">
       <tableStyleElement type="firstRowStripe" dxfId="125"/>
       <tableStyleElement type="secondRowStripe" dxfId="124"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{7CFD1A62-FAA3-4272-9948-B11D495AE7F5}">
+    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{F2A88295-9910-425A-B105-C35C7553794D}">
       <tableStyleElement type="firstRowStripe" dxfId="127"/>
       <tableStyleElement type="secondRowStripe" dxfId="126"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{8A5C14D2-2434-418A-A5BE-A45EB1C43692}">
+    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{6A23D2FD-496C-4C59-9719-DBB8FA82DDA4}">
       <tableStyleElement type="firstRowStripe" dxfId="129"/>
       <tableStyleElement type="secondRowStripe" dxfId="128"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{9E7BC187-110B-4C6C-85B2-5348BA84CC6F}">
+    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{D98162EF-96DE-450E-A17A-836FAB4CB803}">
       <tableStyleElement type="firstRowStripe" dxfId="131"/>
       <tableStyleElement type="secondRowStripe" dxfId="130"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{95BA23B1-D8FB-48AE-AEBB-FBF134728D0E}">
+    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{31B22F2D-B8F4-4933-A3C8-EAEB621A6300}">
       <tableStyleElement type="firstRowStripe" dxfId="133"/>
       <tableStyleElement type="secondRowStripe" dxfId="132"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{D4D24A74-E55C-40C2-BF19-E4A16619E4E0}">
+    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{C095EFA5-4744-4AEC-9B3E-A1B7EE5F19C0}">
       <tableStyleElement type="firstRowStripe" dxfId="135"/>
       <tableStyleElement type="secondRowStripe" dxfId="134"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{16E036EF-C1DC-47C5-983D-1A845EC94060}">
+    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{ADFC5ED8-1998-4BF9-AE38-61726B8D0241}">
       <tableStyleElement type="firstRowStripe" dxfId="137"/>
       <tableStyleElement type="secondRowStripe" dxfId="136"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{6D6F4A08-D955-41DA-977B-C66D78B592B8}">
+    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{8646C4E0-0A50-4E53-A061-626C9B1C137D}">
       <tableStyleElement type="firstRowStripe" dxfId="139"/>
       <tableStyleElement type="secondRowStripe" dxfId="138"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{F39DACF4-8180-4650-9A60-4167904FBA38}">
+    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{DF585399-602F-4C2B-AB7D-31AAD82DBC26}">
       <tableStyleElement type="firstRowStripe" dxfId="141"/>
       <tableStyleElement type="secondRowStripe" dxfId="140"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{CDBDBEA7-2289-43C6-9D4B-D0EA9C529D02}">
+    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{85D96530-C626-4C0E-8A91-4FFB03B7667B}">
       <tableStyleElement type="firstRowStripe" dxfId="143"/>
       <tableStyleElement type="secondRowStripe" dxfId="142"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{B418560C-B04E-415A-9A82-A797CF912C97}">
+    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{25C3471C-964C-4440-8140-01D3D0040F0B}">
       <tableStyleElement type="firstRowStripe" dxfId="145"/>
       <tableStyleElement type="secondRowStripe" dxfId="144"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{DA8E07BE-2941-41F8-B4BC-B21106BCFCF6}">
+    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{1C1EC03E-C24C-4158-93FE-B41BC1CA1A3B}">
       <tableStyleElement type="firstRowStripe" dxfId="147"/>
       <tableStyleElement type="secondRowStripe" dxfId="146"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{7BDC1903-CA36-48C1-9787-97957644369C}">
+    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{E0D06934-84E8-41BB-9265-4F4C13A97796}">
       <tableStyleElement type="firstRowStripe" dxfId="149"/>
       <tableStyleElement type="secondRowStripe" dxfId="148"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{DFA245ED-02C1-41FB-8B1F-8410E238AF83}">
+    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{1DE4E4C3-77E7-420A-9BD6-07544AF04659}">
       <tableStyleElement type="firstRowStripe" dxfId="151"/>
       <tableStyleElement type="secondRowStripe" dxfId="150"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{68BDAFAE-A618-464F-9410-C99905DB4F2D}">
+    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{7CA57FB8-6439-4E01-BCD9-6CAC03E1B55E}">
       <tableStyleElement type="firstRowStripe" dxfId="153"/>
       <tableStyleElement type="secondRowStripe" dxfId="152"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{72678EA9-902C-4D4B-B2E6-0851EEE85799}">
+    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{F847EF11-055C-4870-9279-B2EC3ABAB11E}">
       <tableStyleElement type="firstRowStripe" dxfId="155"/>
       <tableStyleElement type="secondRowStripe" dxfId="154"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{5DC02231-BEEF-4606-92A9-B4815D66B645}">
+    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{19240F2E-50CC-4A19-846A-D2767A6B9584}">
       <tableStyleElement type="firstRowStripe" dxfId="157"/>
       <tableStyleElement type="secondRowStripe" dxfId="156"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{1949987B-0917-4848-BF23-868A25C252BB}">
+    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{674E9D02-14F1-4F24-A06D-ADD42593E9FE}">
       <tableStyleElement type="firstRowStripe" dxfId="159"/>
       <tableStyleElement type="secondRowStripe" dxfId="158"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{39694C68-48E9-4C33-B92D-197DE248A5A2}">
+    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{DD2D7527-8C6F-499B-8C68-A21D9EF55783}">
       <tableStyleElement type="firstRowStripe" dxfId="161"/>
       <tableStyleElement type="secondRowStripe" dxfId="160"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{61866490-5B1D-4402-ABB4-6FAEBC33C51A}">
+    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{2051F633-E961-4C6A-870D-410AAE2636B1}">
       <tableStyleElement type="firstRowStripe" dxfId="163"/>
       <tableStyleElement type="secondRowStripe" dxfId="162"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{E9A09C8E-39AA-4B76-AFB3-A4A51F0418F1}">
+    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{1E0D9420-CBCC-4DB7-955F-A22F7D876BE1}">
       <tableStyleElement type="firstRowStripe" dxfId="165"/>
       <tableStyleElement type="secondRowStripe" dxfId="164"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{4586F6C7-9CFE-496C-8852-78AF90111AAB}">
+    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{3167495C-7CDD-4332-B71F-10F05F5DB596}">
       <tableStyleElement type="firstRowStripe" dxfId="167"/>
       <tableStyleElement type="secondRowStripe" dxfId="166"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{98B1AB7F-0AB5-4D3A-A20F-6097920D6D18}">
+    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{55216474-A0F3-4E34-ACDB-5B0C8BFFD165}">
       <tableStyleElement type="firstRowStripe" dxfId="169"/>
       <tableStyleElement type="secondRowStripe" dxfId="168"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{97CA1359-4BC0-4057-8513-598F3D9437AF}">
+    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{C8044A52-8604-469F-A41A-89BD581E2320}">
       <tableStyleElement type="firstRowStripe" dxfId="171"/>
       <tableStyleElement type="secondRowStripe" dxfId="170"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{EE2EE121-FA1A-49B2-8417-823564B21DFD}">
+    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{5AF0DC30-B0E9-41B7-8490-9A3C907F08FC}">
       <tableStyleElement type="firstRowStripe" dxfId="173"/>
       <tableStyleElement type="secondRowStripe" dxfId="172"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{9DDDC4CA-36F0-4953-838F-498879D404B6}">
+    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{E77E3A19-28BB-4B31-87B6-AA09009A7A6C}">
       <tableStyleElement type="firstRowStripe" dxfId="175"/>
       <tableStyleElement type="secondRowStripe" dxfId="174"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{A41D4830-7A8F-43BE-BF85-7D6DBB1E1C6B}">
+    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{13041C6E-BB19-4AFD-9D1F-7156F74FD89A}">
       <tableStyleElement type="firstRowStripe" dxfId="177"/>
       <tableStyleElement type="secondRowStripe" dxfId="176"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{B4421293-4CB5-42DE-BECD-9DC77A547AD4}">
+    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{D7094E16-2181-49CB-9839-A5D29C141788}">
       <tableStyleElement type="firstRowStripe" dxfId="179"/>
       <tableStyleElement type="secondRowStripe" dxfId="178"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{298B602C-007B-4CC4-B1AB-E90B330DA1A2}">
+    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{2C9DEE6D-B268-43B9-986D-582427A4F868}">
       <tableStyleElement type="firstRowStripe" dxfId="181"/>
       <tableStyleElement type="secondRowStripe" dxfId="180"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{AF64F8B6-4593-4B4C-88F9-42587347C5BA}">
+    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{DD805C6C-9C44-41B9-A9B8-DFE6D79E3001}">
       <tableStyleElement type="firstRowStripe" dxfId="183"/>
       <tableStyleElement type="secondRowStripe" dxfId="182"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{A30ED811-5E52-48FB-B574-579D5F14FF9C}">
+    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{9EF25338-27B5-4E45-AEB9-1C2C28904877}">
       <tableStyleElement type="firstRowStripe" dxfId="185"/>
       <tableStyleElement type="secondRowStripe" dxfId="184"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{63765337-3133-4610-A8AA-BD748B56B8B1}">
+    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{54C61891-F7DE-4F5C-9997-67D7BA131553}">
       <tableStyleElement type="firstRowStripe" dxfId="187"/>
       <tableStyleElement type="secondRowStripe" dxfId="186"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{CF0C6FB5-E240-44B8-8DC0-22B9A567FDBD}">
+    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{A4B7FBEA-BB97-42BD-8CE0-FC35CEC0ED8F}">
       <tableStyleElement type="firstRowStripe" dxfId="189"/>
       <tableStyleElement type="secondRowStripe" dxfId="188"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{D6AB0F2C-6134-4812-84FB-99DF07C2030A}">
+    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{6991A380-39E2-4260-805C-85A9C30DC742}">
       <tableStyleElement type="firstRowStripe" dxfId="191"/>
       <tableStyleElement type="secondRowStripe" dxfId="190"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{FBBF7EB8-8153-47EE-9075-92EB1520D8EB}">
+    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{CA0E069A-A744-4602-8867-DDB1587B9DFB}">
       <tableStyleElement type="firstRowStripe" dxfId="193"/>
       <tableStyleElement type="secondRowStripe" dxfId="192"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{52A0F6D2-CB66-4ABC-963D-6A57EEA0E781}">
+    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{BD7A558C-8D7C-41AE-A20C-7F0760F5E329}">
       <tableStyleElement type="firstRowStripe" dxfId="195"/>
       <tableStyleElement type="secondRowStripe" dxfId="194"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{D7EC782B-051C-4E81-A190-D675DBB86940}">
+    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{0A120D7E-6318-46A4-A0BF-0CDD5A072FC1}">
       <tableStyleElement type="firstRowStripe" dxfId="197"/>
       <tableStyleElement type="secondRowStripe" dxfId="196"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{A32AB570-D4BC-4639-ACA7-3D7DD54C6130}">
+    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{E0BC62E0-637D-4F54-A965-D6B1F3212CBF}">
       <tableStyleElement type="firstRowStripe" dxfId="199"/>
       <tableStyleElement type="secondRowStripe" dxfId="198"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{14C47942-4FA6-45BB-B3FF-24C60A23824F}">
+    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{EFB9BB4E-2DC9-4998-8079-5CEF2B225E28}">
       <tableStyleElement type="firstRowStripe" dxfId="201"/>
       <tableStyleElement type="secondRowStripe" dxfId="200"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{AC0F772C-6E3C-4445-ABD0-2CE6AFA4D622}">
+    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{62D42211-1208-4808-B71C-5C7B759EE90A}">
       <tableStyleElement type="firstRowStripe" dxfId="203"/>
       <tableStyleElement type="secondRowStripe" dxfId="202"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{AC9D643C-F0AB-4C1C-97A0-38FE4BA49FC5}">
+    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{5F9453FD-F353-43C3-817D-2E63546DD367}">
       <tableStyleElement type="firstRowStripe" dxfId="205"/>
       <tableStyleElement type="secondRowStripe" dxfId="204"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{59D46609-C22C-4937-A49C-4B10053EBE77}">
+    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{A689DD1D-4ECF-435B-A63D-2CB25E3B0914}">
       <tableStyleElement type="firstRowStripe" dxfId="207"/>
       <tableStyleElement type="secondRowStripe" dxfId="206"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{CE1C687F-28EF-4DD4-8EDB-EBA1594E70EF}">
+    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{5CF662B6-8B5A-440F-9951-AF3B3F8F91DF}">
       <tableStyleElement type="firstRowStripe" dxfId="209"/>
       <tableStyleElement type="secondRowStripe" dxfId="208"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{1D4A4588-DB64-498A-9659-0E4C0B563CD8}">
+    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{DDA83A15-1E3C-4890-8314-0B6C8328CEAA}">
       <tableStyleElement type="firstRowStripe" dxfId="211"/>
       <tableStyleElement type="secondRowStripe" dxfId="210"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{4C6752C2-215D-4B5C-B083-6BA2FD6A7E58}">
+    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{18265279-CB1A-41DC-98EE-746FA718B9FB}">
       <tableStyleElement type="firstRowStripe" dxfId="213"/>
       <tableStyleElement type="secondRowStripe" dxfId="212"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{1DF4607D-C9BF-4300-B06E-CE19B5E66352}">
+    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{ACEF41E9-535F-4162-8FA8-FB96E111AB2B}">
       <tableStyleElement type="firstRowStripe" dxfId="215"/>
       <tableStyleElement type="secondRowStripe" dxfId="214"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{20586531-8649-434A-8E80-31FB9C33194E}">
+    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{052DE885-26AF-4D84-BDEB-B0F595601AFF}">
       <tableStyleElement type="firstRowStripe" dxfId="217"/>
       <tableStyleElement type="secondRowStripe" dxfId="216"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{72E93EA4-EEE2-412C-9E28-1F5B471A45FC}">
+    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{C4F297CD-6C98-4018-86C2-1B77B13ADFEA}">
       <tableStyleElement type="firstRowStripe" dxfId="219"/>
       <tableStyleElement type="secondRowStripe" dxfId="218"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{E4FB607C-3835-40D8-A678-E5117C2A51C6}">
+    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{E6987E2B-B7FB-4A0A-AC85-2077DD560007}">
       <tableStyleElement type="firstRowStripe" dxfId="221"/>
       <tableStyleElement type="secondRowStripe" dxfId="220"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{429B348C-C85F-4E20-AFF3-BD021229FA01}">
+    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{EC9418A8-8420-4D20-8BE5-256C51106654}">
       <tableStyleElement type="firstRowStripe" dxfId="223"/>
       <tableStyleElement type="secondRowStripe" dxfId="222"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{992F5A40-44C0-4A6B-BB80-3783E6A5FD6E}">
+    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{BC0D255B-76C2-49FC-AFDD-D24FB35B3DC2}">
       <tableStyleElement type="firstRowStripe" dxfId="225"/>
       <tableStyleElement type="secondRowStripe" dxfId="224"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{50F35B7B-C9BF-46F5-8F73-59838B824272}">
+    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{12623F3C-BC04-4E99-9E53-19568F83FB50}">
       <tableStyleElement type="firstRowStripe" dxfId="227"/>
       <tableStyleElement type="secondRowStripe" dxfId="226"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{BC5C0478-CD96-4511-8A61-3506ED98A07A}">
+    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{F68F088A-E737-4E52-93A1-5751D722FA27}">
       <tableStyleElement type="firstRowStripe" dxfId="229"/>
       <tableStyleElement type="secondRowStripe" dxfId="228"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{AEBFD2C4-42C2-439A-ACF0-F5258E7925DE}">
+    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{11A89699-D4EE-407A-9D2C-65EB66077E5A}">
       <tableStyleElement type="firstRowStripe" dxfId="231"/>
       <tableStyleElement type="secondRowStripe" dxfId="230"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{76E094B6-E21B-4808-BC31-FC3DAAC3E5A2}">
+    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{99130985-70FF-4C0C-8793-E1D41A19A266}">
       <tableStyleElement type="firstRowStripe" dxfId="233"/>
       <tableStyleElement type="secondRowStripe" dxfId="232"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{8A695610-D5B5-41D1-83B9-1673530A6117}">
+    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{82D5A34C-C8AC-48F3-82DC-ABEC3F8602CF}">
       <tableStyleElement type="firstRowStripe" dxfId="235"/>
       <tableStyleElement type="secondRowStripe" dxfId="234"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{97DDBF4B-9959-4C67-9BB3-A42E82525DB8}">
+    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{BDAB0FCB-4BD8-4CBE-87D1-BF63EE02CAD1}">
       <tableStyleElement type="firstRowStripe" dxfId="237"/>
       <tableStyleElement type="secondRowStripe" dxfId="236"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{27C0EBD3-AA9A-4876-A2ED-5A7A96413EDF}">
+    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{45765F17-A94F-4D41-B649-29B90BAF0EB0}">
       <tableStyleElement type="firstRowStripe" dxfId="239"/>
       <tableStyleElement type="secondRowStripe" dxfId="238"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{3C09CCD6-B009-4D36-B861-B0C4D7024CC9}">
+    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{7D9124C5-0DAD-4DA4-A48E-943F669CE575}">
       <tableStyleElement type="firstRowStripe" dxfId="241"/>
       <tableStyleElement type="secondRowStripe" dxfId="240"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{B798DFD9-AEC1-4040-8273-BD08305730DB}">
+    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{1EC40E6A-DEFF-4DC7-9491-3456E2A0DDA5}">
       <tableStyleElement type="firstRowStripe" dxfId="243"/>
       <tableStyleElement type="secondRowStripe" dxfId="242"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{003C7B4F-6CD5-49C9-85A9-20147C28243A}">
+    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{36E9FF94-14BF-46CF-8818-4E9BC2BEC321}">
       <tableStyleElement type="firstRowStripe" dxfId="245"/>
       <tableStyleElement type="secondRowStripe" dxfId="244"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{9DCB0BD9-B9F6-4AC4-9CFE-7DD89BF0AA22}">
+    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{D8C9AE35-2D1B-4BD5-8ED4-7AA4132984B0}">
       <tableStyleElement type="firstRowStripe" dxfId="247"/>
       <tableStyleElement type="secondRowStripe" dxfId="246"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{39BC5FFF-6676-4039-8FC2-19CFD4D5A020}">
+    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{4C393772-13BB-4DC2-98A6-7973D4AAD89E}">
       <tableStyleElement type="firstRowStripe" dxfId="249"/>
       <tableStyleElement type="secondRowStripe" dxfId="248"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{B9363A47-4363-4F09-8684-E188FFB03BEA}">
+    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{CA5F04A6-59D9-4828-B14C-A02DA5BB8D5E}">
       <tableStyleElement type="firstRowStripe" dxfId="251"/>
       <tableStyleElement type="secondRowStripe" dxfId="250"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{3DAF78EA-7E4B-48EE-A2DD-413AB7B92F93}">
+    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{55350027-A6F5-4215-9698-C8406978EE8A}">
       <tableStyleElement type="firstRowStripe" dxfId="253"/>
       <tableStyleElement type="secondRowStripe" dxfId="252"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{E906DA6D-0788-47BC-BB3E-C11538710165}">
+    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{647FCD6B-5DCA-4C4F-8010-72CF675290F6}">
       <tableStyleElement type="firstRowStripe" dxfId="255"/>
       <tableStyleElement type="secondRowStripe" dxfId="254"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{B5C1F863-65A2-46CA-800B-68A98BE81294}">
+    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{2A951941-E3A6-4728-9CF2-993882CDD160}">
       <tableStyleElement type="firstRowStripe" dxfId="257"/>
       <tableStyleElement type="secondRowStripe" dxfId="256"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{69B22549-54DF-4BEF-B78C-0FB59A8CD28F}">
+    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{6ACC1D03-61F8-4A4D-97E3-5558686B434B}">
       <tableStyleElement type="firstRowStripe" dxfId="259"/>
       <tableStyleElement type="secondRowStripe" dxfId="258"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{FD4F077C-162C-4DBA-A469-DC48E69E1C92}">
+    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{BEA0BFA5-8228-4E34-BC91-9C0B51ED1619}">
       <tableStyleElement type="firstRowStripe" dxfId="261"/>
       <tableStyleElement type="secondRowStripe" dxfId="260"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{9CD8EF93-149A-465B-9473-28F997160AB7}">
+    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{866164FD-D847-4F3C-A94E-24083BB3DB8A}">
       <tableStyleElement type="firstRowStripe" dxfId="263"/>
       <tableStyleElement type="secondRowStripe" dxfId="262"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{964A8B48-7A8F-43F4-9B56-1BC1CB5806AF}">
+    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{F4B22633-B207-48AD-BBCB-DBDE806868F9}">
       <tableStyleElement type="firstRowStripe" dxfId="265"/>
       <tableStyleElement type="secondRowStripe" dxfId="264"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{83A4D0F8-35EE-4B51-9C3A-F6CE054ECB21}">
+    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{133DC486-F7B0-4CC8-B307-F49452AFFDD3}">
       <tableStyleElement type="firstRowStripe" dxfId="267"/>
       <tableStyleElement type="secondRowStripe" dxfId="266"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{816C9DDF-12C8-4D1F-87F7-EA7914AF2FE3}">
+    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{7E55FD45-116E-424B-8E33-D461521C9A4C}">
       <tableStyleElement type="firstRowStripe" dxfId="269"/>
       <tableStyleElement type="secondRowStripe" dxfId="268"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{F8EE9ACD-F417-48F1-9A00-BA420D0E0FE7}">
+    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{E56B3835-0CC9-4980-BBB9-476F0822EAFB}">
       <tableStyleElement type="firstRowStripe" dxfId="271"/>
       <tableStyleElement type="secondRowStripe" dxfId="270"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{F8217ACF-9182-4C51-A212-081FA98062A2}">
+    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{62A07998-4823-4BB2-AA75-F032144B2008}">
       <tableStyleElement type="firstRowStripe" dxfId="273"/>
       <tableStyleElement type="secondRowStripe" dxfId="272"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{214DCF76-19E7-453E-8E58-8F504633252E}">
+    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{D3D430D6-B1CF-410B-A4AA-7DBCAAB968BE}">
       <tableStyleElement type="firstRowStripe" dxfId="275"/>
       <tableStyleElement type="secondRowStripe" dxfId="274"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{D7E3BE87-845E-465B-9C4A-EFAA4592A74C}">
+    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{7C8AC133-0F4D-4FF4-ACF0-C3F129F52BAD}">
       <tableStyleElement type="firstRowStripe" dxfId="277"/>
       <tableStyleElement type="secondRowStripe" dxfId="276"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{2FA9BA64-DEC0-4FFA-9EFD-8A2B94FEB9BD}">
+    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{B47CC59F-AD61-4172-AFC7-D4DFBC28E51E}">
       <tableStyleElement type="firstRowStripe" dxfId="279"/>
       <tableStyleElement type="secondRowStripe" dxfId="278"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{6F29FC42-A367-46FB-B6F8-4164C94C4B85}">
+    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{2AAE865C-9D88-4287-AE29-4DE8EA0F6699}">
       <tableStyleElement type="firstRowStripe" dxfId="281"/>
       <tableStyleElement type="secondRowStripe" dxfId="280"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{6155715D-FB41-48FA-BB88-2085FEAA7ACE}">
+    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{066F7324-1AA6-4645-A919-05C3BF75B11B}">
       <tableStyleElement type="firstRowStripe" dxfId="283"/>
       <tableStyleElement type="secondRowStripe" dxfId="282"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{59430C35-9F64-44C9-9CA0-BEE7B2AD0093}">
+    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{401D6E2A-4F16-4FCF-80BD-BA01241CB420}">
       <tableStyleElement type="firstRowStripe" dxfId="285"/>
       <tableStyleElement type="secondRowStripe" dxfId="284"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{EC4B605A-36CC-419F-9625-29117CBEE945}">
+    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{39507358-3D6C-48A4-B9DF-11A0597F8937}">
       <tableStyleElement type="firstRowStripe" dxfId="287"/>
       <tableStyleElement type="secondRowStripe" dxfId="286"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{D644A17B-1964-4AB2-B42D-83952D14A8EC}">
+    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{09A60725-0AE2-4C40-8482-B180D726BCFC}">
       <tableStyleElement type="firstRowStripe" dxfId="289"/>
       <tableStyleElement type="secondRowStripe" dxfId="288"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{B0BB7DC2-6099-40ED-AFBC-0E7EB84372EA}">
+    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{6578716C-D8D5-4BA0-9EBE-9BFD9F003D06}">
       <tableStyleElement type="firstRowStripe" dxfId="291"/>
       <tableStyleElement type="secondRowStripe" dxfId="290"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{D452B3E5-A72D-48FE-89D8-E9EF8B3A47E0}">
+    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{657021D0-491B-4427-B974-8F8C2CED37A4}">
       <tableStyleElement type="firstRowStripe" dxfId="293"/>
       <tableStyleElement type="secondRowStripe" dxfId="292"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{F6B7366A-6B2B-4DB7-811F-0F1DCEB1E0DE}">
+    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{317AD82C-C041-48E1-8312-F864C401D7B8}">
       <tableStyleElement type="firstRowStripe" dxfId="295"/>
       <tableStyleElement type="secondRowStripe" dxfId="294"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{A69A85A6-0F61-4F20-84FF-4BE16695D68A}">
+    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{DC44DB7B-97F3-46D0-9899-1B86DD98AA48}">
       <tableStyleElement type="firstRowStripe" dxfId="297"/>
       <tableStyleElement type="secondRowStripe" dxfId="296"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{7813EA15-7390-4B67-965B-1B53EBE9DAEC}">
+    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{52BAC366-2EF8-4B1B-8E7A-3FC9D1CB9F7C}">
       <tableStyleElement type="firstRowStripe" dxfId="299"/>
       <tableStyleElement type="secondRowStripe" dxfId="298"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{086D6FFA-9F90-4814-AC5A-3545A23672D6}">
+    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{FC8B6659-4DDA-4EC7-83B1-BBF5D758402E}">
       <tableStyleElement type="firstRowStripe" dxfId="301"/>
       <tableStyleElement type="secondRowStripe" dxfId="300"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{F4C07451-04A4-4FE4-91C4-B692102503C1}">
+    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{0D6C6CBF-81C1-4CB3-8093-366EF2B18471}">
       <tableStyleElement type="firstRowStripe" dxfId="303"/>
       <tableStyleElement type="secondRowStripe" dxfId="302"/>
     </tableStyle>
@@ -6385,7 +6406,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG760"/>
+  <dimension ref="A1:AG762"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
@@ -34152,13 +34173,27 @@
     </row>
     <row r="609" ht="48.75" customHeight="1" spans="1:33">
       <c r="A609" s="6"/>
-      <c r="B609" s="25"/>
-      <c r="C609" s="25"/>
-      <c r="D609" s="26"/>
-      <c r="E609" s="16"/>
-      <c r="F609" s="26"/>
-      <c r="G609" s="26"/>
-      <c r="H609" s="26"/>
+      <c r="B609" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C609" s="25">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="D609" s="26">
+        <v>1023850840</v>
+      </c>
+      <c r="E609" s="16">
+        <v>10344883</v>
+      </c>
+      <c r="F609" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="G609" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="H609" s="28" t="s">
+        <v>455</v>
+      </c>
       <c r="I609" s="20"/>
       <c r="J609" s="19"/>
       <c r="K609" s="18"/>
@@ -34187,27 +34222,13 @@
     </row>
     <row r="610" ht="48.75" customHeight="1" spans="1:33">
       <c r="A610" s="6"/>
-      <c r="B610" s="25">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C610" s="25">
-        <v>1.04166666666667</v>
-      </c>
-      <c r="D610" s="26" t="s">
-        <v>608</v>
-      </c>
-      <c r="E610" s="16">
-        <v>10348014</v>
-      </c>
-      <c r="F610" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="G610" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="H610" s="26" t="s">
-        <v>116</v>
-      </c>
+      <c r="B610" s="25"/>
+      <c r="C610" s="25"/>
+      <c r="D610" s="26"/>
+      <c r="E610" s="16"/>
+      <c r="F610" s="26"/>
+      <c r="G610" s="26"/>
+      <c r="H610" s="26"/>
       <c r="I610" s="20"/>
       <c r="J610" s="19"/>
       <c r="K610" s="18"/>
@@ -34240,13 +34261,13 @@
         <v>0.666666666666667</v>
       </c>
       <c r="C611" s="25">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="D611" s="26">
-        <v>1153727814</v>
+        <v>1.04166666666667</v>
+      </c>
+      <c r="D611" s="26" t="s">
+        <v>609</v>
       </c>
       <c r="E611" s="16">
-        <v>10292490</v>
+        <v>10348014</v>
       </c>
       <c r="F611" s="26" t="s">
         <v>610</v>
@@ -34285,13 +34306,27 @@
     </row>
     <row r="612" ht="48.75" customHeight="1" spans="1:33">
       <c r="A612" s="6"/>
-      <c r="B612" s="25"/>
-      <c r="C612" s="25"/>
-      <c r="D612" s="26"/>
-      <c r="E612" s="16"/>
-      <c r="F612" s="26"/>
-      <c r="G612" s="26"/>
-      <c r="H612" s="26"/>
+      <c r="B612" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C612" s="25">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="D612" s="26">
+        <v>1153727814</v>
+      </c>
+      <c r="E612" s="16">
+        <v>10292490</v>
+      </c>
+      <c r="F612" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="G612" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="H612" s="26" t="s">
+        <v>116</v>
+      </c>
       <c r="I612" s="20"/>
       <c r="J612" s="19"/>
       <c r="K612" s="18"/>
@@ -34320,27 +34355,13 @@
     </row>
     <row r="613" ht="48.75" customHeight="1" spans="1:33">
       <c r="A613" s="6"/>
-      <c r="B613" s="25">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C613" s="25">
-        <v>1.16666666666667</v>
-      </c>
-      <c r="D613" s="26">
-        <v>1013447363</v>
-      </c>
-      <c r="E613" s="16">
-        <v>10331021</v>
-      </c>
-      <c r="F613" s="26" t="s">
-        <v>611</v>
-      </c>
-      <c r="G613" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H613" s="26" t="s">
-        <v>49</v>
-      </c>
+      <c r="B613" s="25"/>
+      <c r="C613" s="25"/>
+      <c r="D613" s="26"/>
+      <c r="E613" s="16"/>
+      <c r="F613" s="26"/>
+      <c r="G613" s="26"/>
+      <c r="H613" s="26"/>
       <c r="I613" s="20"/>
       <c r="J613" s="19"/>
       <c r="K613" s="18"/>
@@ -34367,33 +34388,31 @@
       <c r="AF613" s="18"/>
       <c r="AG613" s="18"/>
     </row>
-    <row r="614" ht="47.25" customHeight="1" spans="1:33">
+    <row r="614" ht="48.75" customHeight="1" spans="1:33">
       <c r="A614" s="6"/>
-      <c r="B614" s="14">
+      <c r="B614" s="25">
         <v>0.666666666666667</v>
       </c>
-      <c r="C614" s="14">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="D614" s="15">
-        <v>1276272363</v>
+      <c r="C614" s="25">
+        <v>1.16666666666667</v>
+      </c>
+      <c r="D614" s="26">
+        <v>1013447363</v>
       </c>
       <c r="E614" s="16">
-        <v>10346755</v>
-      </c>
-      <c r="F614" s="15" t="s">
+        <v>10331021</v>
+      </c>
+      <c r="F614" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="G614" s="15" t="s">
+      <c r="G614" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H614" s="27" t="s">
-        <v>47</v>
+      <c r="H614" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="I614" s="20"/>
-      <c r="J614" s="19" t="s">
-        <v>613</v>
-      </c>
+      <c r="J614" s="19"/>
       <c r="K614" s="18"/>
       <c r="L614" s="18"/>
       <c r="M614" s="18"/>
@@ -34418,17 +34437,33 @@
       <c r="AF614" s="18"/>
       <c r="AG614" s="18"/>
     </row>
-    <row r="615" ht="48.75" customHeight="1" spans="1:33">
+    <row r="615" ht="47.25" customHeight="1" spans="1:33">
       <c r="A615" s="6"/>
-      <c r="B615" s="25"/>
-      <c r="C615" s="25"/>
-      <c r="D615" s="26"/>
-      <c r="E615" s="16"/>
-      <c r="F615" s="26"/>
-      <c r="G615" s="26"/>
-      <c r="H615" s="26"/>
+      <c r="B615" s="14">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C615" s="14">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="D615" s="15">
+        <v>1276272363</v>
+      </c>
+      <c r="E615" s="16">
+        <v>10346755</v>
+      </c>
+      <c r="F615" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="G615" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H615" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="I615" s="20"/>
-      <c r="J615" s="19"/>
+      <c r="J615" s="19" t="s">
+        <v>614</v>
+      </c>
       <c r="K615" s="18"/>
       <c r="L615" s="18"/>
       <c r="M615" s="18"/>
@@ -34455,27 +34490,13 @@
     </row>
     <row r="616" ht="48.75" customHeight="1" spans="1:33">
       <c r="A616" s="6"/>
-      <c r="B616" s="25">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C616" s="25">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="D616" s="26">
-        <v>0</v>
-      </c>
-      <c r="E616" s="16">
-        <v>10334214</v>
-      </c>
-      <c r="F616" s="26" t="s">
-        <v>614</v>
-      </c>
-      <c r="G616" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="H616" s="26" t="s">
-        <v>228</v>
-      </c>
+      <c r="B616" s="25"/>
+      <c r="C616" s="25"/>
+      <c r="D616" s="26"/>
+      <c r="E616" s="16"/>
+      <c r="F616" s="26"/>
+      <c r="G616" s="26"/>
+      <c r="H616" s="26"/>
       <c r="I616" s="20"/>
       <c r="J616" s="19"/>
       <c r="K616" s="18"/>
@@ -34504,13 +34525,27 @@
     </row>
     <row r="617" ht="48.75" customHeight="1" spans="1:33">
       <c r="A617" s="6"/>
-      <c r="B617" s="25"/>
-      <c r="C617" s="25"/>
-      <c r="D617" s="26"/>
-      <c r="E617" s="16"/>
-      <c r="F617" s="26"/>
-      <c r="G617" s="26"/>
-      <c r="H617" s="26"/>
+      <c r="B617" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C617" s="25">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="D617" s="26">
+        <v>0</v>
+      </c>
+      <c r="E617" s="16">
+        <v>10334214</v>
+      </c>
+      <c r="F617" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="G617" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="H617" s="26" t="s">
+        <v>228</v>
+      </c>
       <c r="I617" s="20"/>
       <c r="J617" s="19"/>
       <c r="K617" s="18"/>
@@ -34537,17 +34572,15 @@
       <c r="AF617" s="18"/>
       <c r="AG617" s="18"/>
     </row>
-    <row r="618" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A618" s="9">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="B618" s="10"/>
-      <c r="C618" s="10"/>
-      <c r="D618" s="10"/>
-      <c r="E618" s="11"/>
-      <c r="F618" s="10"/>
-      <c r="G618" s="10"/>
-      <c r="H618" s="10"/>
+    <row r="618" ht="48.75" customHeight="1" spans="1:33">
+      <c r="A618" s="6"/>
+      <c r="B618" s="25"/>
+      <c r="C618" s="25"/>
+      <c r="D618" s="26"/>
+      <c r="E618" s="16"/>
+      <c r="F618" s="26"/>
+      <c r="G618" s="26"/>
+      <c r="H618" s="26"/>
       <c r="I618" s="20"/>
       <c r="J618" s="19"/>
       <c r="K618" s="18"/>
@@ -34574,29 +34607,17 @@
       <c r="AF618" s="18"/>
       <c r="AG618" s="18"/>
     </row>
-    <row r="619" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A619" s="12"/>
-      <c r="B619" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C619" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D619" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E619" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F619" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G619" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H619" s="8" t="s">
-        <v>6</v>
-      </c>
+    <row r="619" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A619" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="B619" s="10"/>
+      <c r="C619" s="10"/>
+      <c r="D619" s="10"/>
+      <c r="E619" s="11"/>
+      <c r="F619" s="10"/>
+      <c r="G619" s="10"/>
+      <c r="H619" s="10"/>
       <c r="I619" s="20"/>
       <c r="J619" s="19"/>
       <c r="K619" s="18"/>
@@ -34623,15 +34644,29 @@
       <c r="AF619" s="18"/>
       <c r="AG619" s="18"/>
     </row>
-    <row r="620" ht="43.15" customHeight="1" spans="1:33">
-      <c r="A620" s="6"/>
-      <c r="B620" s="14"/>
-      <c r="C620" s="14"/>
-      <c r="D620" s="15"/>
-      <c r="E620" s="16"/>
-      <c r="F620" s="15"/>
-      <c r="G620" s="15"/>
-      <c r="H620" s="15"/>
+    <row r="620" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A620" s="12"/>
+      <c r="B620" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C620" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D620" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E620" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F620" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G620" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H620" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I620" s="20"/>
       <c r="J620" s="19"/>
       <c r="K620" s="18"/>
@@ -34660,27 +34695,13 @@
     </row>
     <row r="621" ht="43.15" customHeight="1" spans="1:33">
       <c r="A621" s="6"/>
-      <c r="B621" s="14">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C621" s="14">
-        <v>0</v>
-      </c>
-      <c r="D621" s="15">
-        <v>1112572011</v>
-      </c>
-      <c r="E621" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F621" s="15" t="s">
-        <v>615</v>
-      </c>
-      <c r="G621" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H621" s="15" t="s">
-        <v>51</v>
-      </c>
+      <c r="B621" s="14"/>
+      <c r="C621" s="14"/>
+      <c r="D621" s="15"/>
+      <c r="E621" s="16"/>
+      <c r="F621" s="15"/>
+      <c r="G621" s="15"/>
+      <c r="H621" s="15"/>
       <c r="I621" s="20"/>
       <c r="J621" s="19"/>
       <c r="K621" s="18"/>
@@ -34709,13 +34730,27 @@
     </row>
     <row r="622" ht="43.15" customHeight="1" spans="1:33">
       <c r="A622" s="6"/>
-      <c r="B622" s="14"/>
-      <c r="C622" s="14"/>
-      <c r="D622" s="15"/>
-      <c r="E622" s="16"/>
-      <c r="F622" s="15"/>
-      <c r="G622" s="15"/>
-      <c r="H622" s="15"/>
+      <c r="B622" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C622" s="14">
+        <v>0</v>
+      </c>
+      <c r="D622" s="15">
+        <v>1112572011</v>
+      </c>
+      <c r="E622" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F622" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="G622" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H622" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="I622" s="20"/>
       <c r="J622" s="19"/>
       <c r="K622" s="18"/>
@@ -34744,27 +34779,13 @@
     </row>
     <row r="623" ht="43.15" customHeight="1" spans="1:33">
       <c r="A623" s="6"/>
-      <c r="B623" s="14">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C623" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D623" s="15">
-        <v>1033206100</v>
-      </c>
-      <c r="E623" s="16">
-        <v>10322714</v>
-      </c>
-      <c r="F623" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="G623" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H623" s="15" t="s">
-        <v>69</v>
-      </c>
+      <c r="B623" s="14"/>
+      <c r="C623" s="14"/>
+      <c r="D623" s="15"/>
+      <c r="E623" s="16"/>
+      <c r="F623" s="15"/>
+      <c r="G623" s="15"/>
+      <c r="H623" s="15"/>
       <c r="I623" s="20"/>
       <c r="J623" s="19"/>
       <c r="K623" s="18"/>
@@ -34793,13 +34814,27 @@
     </row>
     <row r="624" ht="43.15" customHeight="1" spans="1:33">
       <c r="A624" s="6"/>
-      <c r="B624" s="14"/>
-      <c r="C624" s="14"/>
-      <c r="D624" s="15"/>
-      <c r="E624" s="16"/>
-      <c r="F624" s="15"/>
-      <c r="G624" s="15"/>
-      <c r="H624" s="15"/>
+      <c r="B624" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C624" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D624" s="15">
+        <v>1033206100</v>
+      </c>
+      <c r="E624" s="16">
+        <v>10322714</v>
+      </c>
+      <c r="F624" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="G624" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H624" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="I624" s="20"/>
       <c r="J624" s="19"/>
       <c r="K624" s="18"/>
@@ -34828,27 +34863,13 @@
     </row>
     <row r="625" ht="43.15" customHeight="1" spans="1:33">
       <c r="A625" s="6"/>
-      <c r="B625" s="14">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C625" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D625" s="15">
-        <v>1274776024</v>
-      </c>
-      <c r="E625" s="16">
-        <v>10311872</v>
-      </c>
-      <c r="F625" s="15" t="s">
-        <v>617</v>
-      </c>
-      <c r="G625" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H625" s="15" t="s">
-        <v>219</v>
-      </c>
+      <c r="B625" s="14"/>
+      <c r="C625" s="14"/>
+      <c r="D625" s="15"/>
+      <c r="E625" s="16"/>
+      <c r="F625" s="15"/>
+      <c r="G625" s="15"/>
+      <c r="H625" s="15"/>
       <c r="I625" s="20"/>
       <c r="J625" s="19"/>
       <c r="K625" s="18"/>
@@ -34877,13 +34898,27 @@
     </row>
     <row r="626" ht="43.15" customHeight="1" spans="1:33">
       <c r="A626" s="6"/>
-      <c r="B626" s="14"/>
-      <c r="C626" s="14"/>
-      <c r="D626" s="15"/>
-      <c r="E626" s="16"/>
-      <c r="F626" s="15"/>
-      <c r="G626" s="15"/>
-      <c r="H626" s="15"/>
+      <c r="B626" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C626" s="14">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D626" s="15">
+        <v>1274776024</v>
+      </c>
+      <c r="E626" s="16">
+        <v>10311872</v>
+      </c>
+      <c r="F626" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="G626" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H626" s="15" t="s">
+        <v>219</v>
+      </c>
       <c r="I626" s="20"/>
       <c r="J626" s="19"/>
       <c r="K626" s="18"/>
@@ -34910,17 +34945,15 @@
       <c r="AF626" s="18"/>
       <c r="AG626" s="18"/>
     </row>
-    <row r="627" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A627" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="B627" s="10"/>
-      <c r="C627" s="10"/>
-      <c r="D627" s="10"/>
-      <c r="E627" s="11"/>
-      <c r="F627" s="10"/>
-      <c r="G627" s="10"/>
-      <c r="H627" s="10"/>
+    <row r="627" ht="43.15" customHeight="1" spans="1:33">
+      <c r="A627" s="6"/>
+      <c r="B627" s="14"/>
+      <c r="C627" s="14"/>
+      <c r="D627" s="15"/>
+      <c r="E627" s="16"/>
+      <c r="F627" s="15"/>
+      <c r="G627" s="15"/>
+      <c r="H627" s="15"/>
       <c r="I627" s="20"/>
       <c r="J627" s="19"/>
       <c r="K627" s="18"/>
@@ -34947,29 +34980,17 @@
       <c r="AF627" s="18"/>
       <c r="AG627" s="18"/>
     </row>
-    <row r="628" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A628" s="12"/>
-      <c r="B628" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C628" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D628" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E628" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F628" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G628" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H628" s="8" t="s">
-        <v>6</v>
-      </c>
+    <row r="628" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A628" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="B628" s="10"/>
+      <c r="C628" s="10"/>
+      <c r="D628" s="10"/>
+      <c r="E628" s="11"/>
+      <c r="F628" s="10"/>
+      <c r="G628" s="10"/>
+      <c r="H628" s="10"/>
       <c r="I628" s="20"/>
       <c r="J628" s="19"/>
       <c r="K628" s="18"/>
@@ -34997,14 +35018,28 @@
       <c r="AG628" s="18"/>
     </row>
     <row r="629" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A629" s="6"/>
-      <c r="B629" s="25"/>
-      <c r="C629" s="25"/>
-      <c r="D629" s="26"/>
-      <c r="E629" s="16"/>
-      <c r="F629" s="26"/>
-      <c r="G629" s="26"/>
-      <c r="H629" s="26"/>
+      <c r="A629" s="12"/>
+      <c r="B629" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C629" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D629" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E629" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F629" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G629" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H629" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I629" s="20"/>
       <c r="J629" s="19"/>
       <c r="K629" s="18"/>
@@ -35033,27 +35068,13 @@
     </row>
     <row r="630" ht="43.5" customHeight="1" spans="1:33">
       <c r="A630" s="6"/>
-      <c r="B630" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="C630" s="25">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D630" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="E630" s="16">
-        <v>10346118</v>
-      </c>
-      <c r="F630" s="26" t="s">
-        <v>619</v>
-      </c>
-      <c r="G630" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H630" s="26" t="s">
-        <v>16</v>
-      </c>
+      <c r="B630" s="25"/>
+      <c r="C630" s="25"/>
+      <c r="D630" s="26"/>
+      <c r="E630" s="16"/>
+      <c r="F630" s="26"/>
+      <c r="G630" s="26"/>
+      <c r="H630" s="26"/>
       <c r="I630" s="20"/>
       <c r="J630" s="19"/>
       <c r="K630" s="18"/>
@@ -35082,13 +35103,27 @@
     </row>
     <row r="631" ht="43.5" customHeight="1" spans="1:33">
       <c r="A631" s="6"/>
-      <c r="B631" s="25"/>
-      <c r="C631" s="25"/>
-      <c r="D631" s="26"/>
-      <c r="E631" s="16"/>
-      <c r="F631" s="26"/>
-      <c r="G631" s="26"/>
-      <c r="H631" s="26"/>
+      <c r="B631" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C631" s="25">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D631" s="26" t="s">
+        <v>619</v>
+      </c>
+      <c r="E631" s="16">
+        <v>10346118</v>
+      </c>
+      <c r="F631" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="G631" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H631" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="I631" s="20"/>
       <c r="J631" s="19"/>
       <c r="K631" s="18"/>
@@ -35117,27 +35152,13 @@
     </row>
     <row r="632" ht="43.5" customHeight="1" spans="1:33">
       <c r="A632" s="6"/>
-      <c r="B632" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="C632" s="25">
-        <v>1.25</v>
-      </c>
-      <c r="D632" s="26">
-        <v>1017467206</v>
-      </c>
-      <c r="E632" s="16">
-        <v>10270497</v>
-      </c>
-      <c r="F632" s="26" t="s">
-        <v>620</v>
-      </c>
-      <c r="G632" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="H632" s="26" t="s">
-        <v>77</v>
-      </c>
+      <c r="B632" s="25"/>
+      <c r="C632" s="25"/>
+      <c r="D632" s="26"/>
+      <c r="E632" s="16"/>
+      <c r="F632" s="26"/>
+      <c r="G632" s="26"/>
+      <c r="H632" s="26"/>
       <c r="I632" s="20"/>
       <c r="J632" s="19"/>
       <c r="K632" s="18"/>
@@ -35166,13 +35187,27 @@
     </row>
     <row r="633" ht="43.5" customHeight="1" spans="1:33">
       <c r="A633" s="6"/>
-      <c r="B633" s="25"/>
-      <c r="C633" s="25"/>
-      <c r="D633" s="26"/>
-      <c r="E633" s="16"/>
-      <c r="F633" s="26"/>
-      <c r="G633" s="26"/>
-      <c r="H633" s="26"/>
+      <c r="B633" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C633" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="D633" s="26">
+        <v>1017467206</v>
+      </c>
+      <c r="E633" s="16">
+        <v>10270497</v>
+      </c>
+      <c r="F633" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="G633" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="H633" s="26" t="s">
+        <v>77</v>
+      </c>
       <c r="I633" s="20"/>
       <c r="J633" s="19"/>
       <c r="K633" s="18"/>
@@ -35201,27 +35236,13 @@
     </row>
     <row r="634" ht="43.5" customHeight="1" spans="1:33">
       <c r="A634" s="6"/>
-      <c r="B634" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="C634" s="25">
-        <v>1.125</v>
-      </c>
-      <c r="D634" s="26">
-        <v>1126257048</v>
-      </c>
-      <c r="E634" s="16">
-        <v>10346778</v>
-      </c>
-      <c r="F634" s="26" t="s">
-        <v>622</v>
-      </c>
-      <c r="G634" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H634" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="B634" s="25"/>
+      <c r="C634" s="25"/>
+      <c r="D634" s="26"/>
+      <c r="E634" s="16"/>
+      <c r="F634" s="26"/>
+      <c r="G634" s="26"/>
+      <c r="H634" s="26"/>
       <c r="I634" s="20"/>
       <c r="J634" s="19"/>
       <c r="K634" s="18"/>
@@ -35250,13 +35271,27 @@
     </row>
     <row r="635" ht="43.5" customHeight="1" spans="1:33">
       <c r="A635" s="6"/>
-      <c r="B635" s="25"/>
-      <c r="C635" s="25"/>
-      <c r="D635" s="26"/>
-      <c r="E635" s="16"/>
-      <c r="F635" s="26"/>
-      <c r="G635" s="26"/>
-      <c r="H635" s="26"/>
+      <c r="B635" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C635" s="25">
+        <v>1.125</v>
+      </c>
+      <c r="D635" s="26">
+        <v>1126257048</v>
+      </c>
+      <c r="E635" s="16">
+        <v>10346778</v>
+      </c>
+      <c r="F635" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="G635" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H635" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="I635" s="20"/>
       <c r="J635" s="19"/>
       <c r="K635" s="18"/>
@@ -35285,27 +35320,13 @@
     </row>
     <row r="636" ht="43.5" customHeight="1" spans="1:33">
       <c r="A636" s="6"/>
-      <c r="B636" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="C636" s="25">
-        <v>0.125</v>
-      </c>
-      <c r="D636" s="26">
-        <v>1070874137</v>
-      </c>
-      <c r="E636" s="16">
-        <v>10334215</v>
-      </c>
-      <c r="F636" s="26" t="s">
-        <v>623</v>
-      </c>
-      <c r="G636" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H636" s="26" t="s">
-        <v>31</v>
-      </c>
+      <c r="B636" s="25"/>
+      <c r="C636" s="25"/>
+      <c r="D636" s="26"/>
+      <c r="E636" s="16"/>
+      <c r="F636" s="26"/>
+      <c r="G636" s="26"/>
+      <c r="H636" s="26"/>
       <c r="I636" s="20"/>
       <c r="J636" s="19"/>
       <c r="K636" s="18"/>
@@ -35334,13 +35355,27 @@
     </row>
     <row r="637" ht="43.5" customHeight="1" spans="1:33">
       <c r="A637" s="6"/>
-      <c r="B637" s="25"/>
-      <c r="C637" s="25"/>
-      <c r="D637" s="26"/>
-      <c r="E637" s="16"/>
-      <c r="F637" s="26"/>
-      <c r="G637" s="26"/>
-      <c r="H637" s="26"/>
+      <c r="B637" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C637" s="25">
+        <v>0.125</v>
+      </c>
+      <c r="D637" s="26">
+        <v>1070874137</v>
+      </c>
+      <c r="E637" s="16">
+        <v>10334215</v>
+      </c>
+      <c r="F637" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="G637" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H637" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="I637" s="20"/>
       <c r="J637" s="19"/>
       <c r="K637" s="18"/>
@@ -35369,27 +35404,13 @@
     </row>
     <row r="638" ht="43.5" customHeight="1" spans="1:33">
       <c r="A638" s="6"/>
-      <c r="B638" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="C638" s="25">
-        <v>1.25</v>
-      </c>
-      <c r="D638" s="26">
-        <v>1032492021</v>
-      </c>
-      <c r="E638" s="16">
-        <v>10341611</v>
-      </c>
-      <c r="F638" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="G638" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H638" s="26" t="s">
-        <v>60</v>
-      </c>
+      <c r="B638" s="25"/>
+      <c r="C638" s="25"/>
+      <c r="D638" s="26"/>
+      <c r="E638" s="16"/>
+      <c r="F638" s="26"/>
+      <c r="G638" s="26"/>
+      <c r="H638" s="26"/>
       <c r="I638" s="20"/>
       <c r="J638" s="19"/>
       <c r="K638" s="18"/>
@@ -35422,13 +35443,13 @@
         <v>0.75</v>
       </c>
       <c r="C639" s="25">
-        <v>1.16666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="D639" s="26">
-        <v>1126128951</v>
+        <v>1032492021</v>
       </c>
       <c r="E639" s="16">
-        <v>10344185</v>
+        <v>10341611</v>
       </c>
       <c r="F639" s="26" t="s">
         <v>625</v>
@@ -35437,7 +35458,7 @@
         <v>13</v>
       </c>
       <c r="H639" s="26" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I639" s="20"/>
       <c r="J639" s="19"/>
@@ -35471,13 +35492,13 @@
         <v>0.75</v>
       </c>
       <c r="C640" s="25">
-        <v>1.125</v>
+        <v>1.16666666666667</v>
       </c>
       <c r="D640" s="26">
-        <v>1124069931</v>
+        <v>1126128951</v>
       </c>
       <c r="E640" s="16">
-        <v>10346573</v>
+        <v>10344185</v>
       </c>
       <c r="F640" s="26" t="s">
         <v>626</v>
@@ -35523,10 +35544,10 @@
         <v>1.125</v>
       </c>
       <c r="D641" s="26">
-        <v>1080652791</v>
+        <v>1124069931</v>
       </c>
       <c r="E641" s="16">
-        <v>10346788</v>
+        <v>10346573</v>
       </c>
       <c r="F641" s="26" t="s">
         <v>627</v>
@@ -35535,7 +35556,7 @@
         <v>13</v>
       </c>
       <c r="H641" s="26" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I641" s="20"/>
       <c r="J641" s="19"/>
@@ -35572,10 +35593,10 @@
         <v>1.125</v>
       </c>
       <c r="D642" s="26">
-        <v>1507554968</v>
+        <v>1080652791</v>
       </c>
       <c r="E642" s="16">
-        <v>10346148</v>
+        <v>10346788</v>
       </c>
       <c r="F642" s="26" t="s">
         <v>628</v>
@@ -35584,7 +35605,7 @@
         <v>13</v>
       </c>
       <c r="H642" s="26" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="I642" s="20"/>
       <c r="J642" s="19"/>
@@ -35618,13 +35639,13 @@
         <v>0.75</v>
       </c>
       <c r="C643" s="25">
-        <v>0.125</v>
+        <v>1.125</v>
       </c>
       <c r="D643" s="26">
-        <v>1123800117</v>
+        <v>1507554968</v>
       </c>
       <c r="E643" s="16">
-        <v>10212383</v>
+        <v>10346148</v>
       </c>
       <c r="F643" s="26" t="s">
         <v>629</v>
@@ -35633,7 +35654,7 @@
         <v>13</v>
       </c>
       <c r="H643" s="26" t="s">
-        <v>630</v>
+        <v>38</v>
       </c>
       <c r="I643" s="20"/>
       <c r="J643" s="19"/>
@@ -35663,13 +35684,27 @@
     </row>
     <row r="644" ht="43.5" customHeight="1" spans="1:33">
       <c r="A644" s="6"/>
-      <c r="B644" s="25"/>
-      <c r="C644" s="25"/>
-      <c r="D644" s="26"/>
-      <c r="E644" s="16"/>
-      <c r="F644" s="26"/>
-      <c r="G644" s="26"/>
-      <c r="H644" s="26"/>
+      <c r="B644" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C644" s="25">
+        <v>0.125</v>
+      </c>
+      <c r="D644" s="26">
+        <v>1123800117</v>
+      </c>
+      <c r="E644" s="16">
+        <v>10212383</v>
+      </c>
+      <c r="F644" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="G644" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H644" s="26" t="s">
+        <v>631</v>
+      </c>
       <c r="I644" s="20"/>
       <c r="J644" s="19"/>
       <c r="K644" s="18"/>
@@ -35698,27 +35733,13 @@
     </row>
     <row r="645" ht="43.5" customHeight="1" spans="1:33">
       <c r="A645" s="6"/>
-      <c r="B645" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="C645" s="25">
-        <v>1.16666666666667</v>
-      </c>
-      <c r="D645" s="26">
-        <v>1002894384</v>
-      </c>
-      <c r="E645" s="16">
-        <v>10347165</v>
-      </c>
-      <c r="F645" s="26" t="s">
-        <v>631</v>
-      </c>
-      <c r="G645" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="H645" s="26" t="s">
-        <v>60</v>
-      </c>
+      <c r="B645" s="25"/>
+      <c r="C645" s="25"/>
+      <c r="D645" s="26"/>
+      <c r="E645" s="16"/>
+      <c r="F645" s="26"/>
+      <c r="G645" s="26"/>
+      <c r="H645" s="26"/>
       <c r="I645" s="20"/>
       <c r="J645" s="19"/>
       <c r="K645" s="18"/>
@@ -35747,13 +35768,27 @@
     </row>
     <row r="646" ht="43.5" customHeight="1" spans="1:33">
       <c r="A646" s="6"/>
-      <c r="B646" s="25"/>
-      <c r="C646" s="25"/>
-      <c r="D646" s="26"/>
-      <c r="E646" s="16"/>
-      <c r="F646" s="26"/>
-      <c r="G646" s="26"/>
-      <c r="H646" s="26"/>
+      <c r="B646" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C646" s="25">
+        <v>1.16666666666667</v>
+      </c>
+      <c r="D646" s="26">
+        <v>1002894384</v>
+      </c>
+      <c r="E646" s="16">
+        <v>10347165</v>
+      </c>
+      <c r="F646" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="G646" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H646" s="26" t="s">
+        <v>60</v>
+      </c>
       <c r="I646" s="20"/>
       <c r="J646" s="19"/>
       <c r="K646" s="18"/>
@@ -35782,27 +35817,13 @@
     </row>
     <row r="647" ht="43.5" customHeight="1" spans="1:33">
       <c r="A647" s="6"/>
-      <c r="B647" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="C647" s="25">
-        <v>1.16666666666667</v>
-      </c>
-      <c r="D647" s="26">
-        <v>1091061813</v>
-      </c>
-      <c r="E647" s="16">
-        <v>10323448</v>
-      </c>
-      <c r="F647" s="26" t="s">
-        <v>632</v>
-      </c>
-      <c r="G647" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="H647" s="26" t="s">
-        <v>186</v>
-      </c>
+      <c r="B647" s="25"/>
+      <c r="C647" s="25"/>
+      <c r="D647" s="26"/>
+      <c r="E647" s="16"/>
+      <c r="F647" s="26"/>
+      <c r="G647" s="26"/>
+      <c r="H647" s="26"/>
       <c r="I647" s="20"/>
       <c r="J647" s="19"/>
       <c r="K647" s="18"/>
@@ -35835,13 +35856,13 @@
         <v>0.75</v>
       </c>
       <c r="C648" s="25">
-        <v>1.25</v>
+        <v>1.16666666666667</v>
       </c>
       <c r="D648" s="26">
-        <v>1148646797</v>
+        <v>1091061813</v>
       </c>
       <c r="E648" s="16">
-        <v>10338474</v>
+        <v>10323448</v>
       </c>
       <c r="F648" s="26" t="s">
         <v>633</v>
@@ -35850,7 +35871,7 @@
         <v>63</v>
       </c>
       <c r="H648" s="26" t="s">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="I648" s="20"/>
       <c r="J648" s="19"/>
@@ -35884,13 +35905,13 @@
         <v>0.75</v>
       </c>
       <c r="C649" s="25">
-        <v>1.16666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="D649" s="26">
-        <v>1044822349</v>
+        <v>1148646797</v>
       </c>
       <c r="E649" s="16">
-        <v>10341595</v>
+        <v>10338474</v>
       </c>
       <c r="F649" s="26" t="s">
         <v>634</v>
@@ -35899,7 +35920,7 @@
         <v>63</v>
       </c>
       <c r="H649" s="26" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c r="I649" s="20"/>
       <c r="J649" s="19"/>
@@ -35929,13 +35950,27 @@
     </row>
     <row r="650" ht="43.5" customHeight="1" spans="1:33">
       <c r="A650" s="6"/>
-      <c r="B650" s="25"/>
-      <c r="C650" s="25"/>
-      <c r="D650" s="26"/>
-      <c r="E650" s="16"/>
-      <c r="F650" s="26"/>
-      <c r="G650" s="26"/>
-      <c r="H650" s="26"/>
+      <c r="B650" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C650" s="25">
+        <v>1.16666666666667</v>
+      </c>
+      <c r="D650" s="26">
+        <v>1044822349</v>
+      </c>
+      <c r="E650" s="16">
+        <v>10341595</v>
+      </c>
+      <c r="F650" s="26" t="s">
+        <v>635</v>
+      </c>
+      <c r="G650" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H650" s="26" t="s">
+        <v>186</v>
+      </c>
       <c r="I650" s="20"/>
       <c r="J650" s="19"/>
       <c r="K650" s="18"/>
@@ -35964,27 +35999,13 @@
     </row>
     <row r="651" ht="43.5" customHeight="1" spans="1:33">
       <c r="A651" s="6"/>
-      <c r="B651" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="C651" s="25">
-        <v>1.08333333333333</v>
-      </c>
-      <c r="D651" s="26">
-        <v>1555073993</v>
-      </c>
-      <c r="E651" s="16">
-        <v>10339759</v>
-      </c>
-      <c r="F651" s="26" t="s">
-        <v>635</v>
-      </c>
-      <c r="G651" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H651" s="26" t="s">
-        <v>74</v>
-      </c>
+      <c r="B651" s="25"/>
+      <c r="C651" s="25"/>
+      <c r="D651" s="26"/>
+      <c r="E651" s="16"/>
+      <c r="F651" s="26"/>
+      <c r="G651" s="26"/>
+      <c r="H651" s="26"/>
       <c r="I651" s="20"/>
       <c r="J651" s="19"/>
       <c r="K651" s="18"/>
@@ -36013,13 +36034,27 @@
     </row>
     <row r="652" ht="43.5" customHeight="1" spans="1:33">
       <c r="A652" s="6"/>
-      <c r="B652" s="25"/>
-      <c r="C652" s="25"/>
-      <c r="D652" s="26"/>
-      <c r="E652" s="16"/>
-      <c r="F652" s="26"/>
-      <c r="G652" s="26"/>
-      <c r="H652" s="26"/>
+      <c r="B652" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C652" s="25">
+        <v>1.08333333333333</v>
+      </c>
+      <c r="D652" s="26">
+        <v>1555073993</v>
+      </c>
+      <c r="E652" s="16">
+        <v>10339759</v>
+      </c>
+      <c r="F652" s="26" t="s">
+        <v>636</v>
+      </c>
+      <c r="G652" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H652" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="I652" s="20"/>
       <c r="J652" s="19"/>
       <c r="K652" s="18"/>
@@ -36048,27 +36083,13 @@
     </row>
     <row r="653" ht="43.5" customHeight="1" spans="1:33">
       <c r="A653" s="6"/>
-      <c r="B653" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="C653" s="25">
-        <v>1.125</v>
-      </c>
-      <c r="D653" s="26">
-        <v>1026041099</v>
-      </c>
-      <c r="E653" s="16">
-        <v>10344170</v>
-      </c>
-      <c r="F653" s="26" t="s">
-        <v>636</v>
-      </c>
-      <c r="G653" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="H653" s="26" t="s">
-        <v>194</v>
-      </c>
+      <c r="B653" s="25"/>
+      <c r="C653" s="25"/>
+      <c r="D653" s="26"/>
+      <c r="E653" s="16"/>
+      <c r="F653" s="26"/>
+      <c r="G653" s="26"/>
+      <c r="H653" s="26"/>
       <c r="I653" s="20"/>
       <c r="J653" s="19"/>
       <c r="K653" s="18"/>
@@ -36103,14 +36124,14 @@
       <c r="C654" s="25">
         <v>1.125</v>
       </c>
-      <c r="D654" s="26" t="s">
+      <c r="D654" s="26">
+        <v>1026041099</v>
+      </c>
+      <c r="E654" s="16">
+        <v>10344170</v>
+      </c>
+      <c r="F654" s="26" t="s">
         <v>637</v>
-      </c>
-      <c r="E654" s="16">
-        <v>10346149</v>
-      </c>
-      <c r="F654" s="26" t="s">
-        <v>638</v>
       </c>
       <c r="G654" s="26" t="s">
         <v>193</v>
@@ -36146,13 +36167,27 @@
     </row>
     <row r="655" ht="43.5" customHeight="1" spans="1:33">
       <c r="A655" s="6"/>
-      <c r="B655" s="25"/>
-      <c r="C655" s="25"/>
-      <c r="D655" s="26"/>
-      <c r="E655" s="16"/>
-      <c r="F655" s="26"/>
-      <c r="G655" s="26"/>
-      <c r="H655" s="26"/>
+      <c r="B655" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C655" s="25">
+        <v>1.125</v>
+      </c>
+      <c r="D655" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="E655" s="16">
+        <v>10346149</v>
+      </c>
+      <c r="F655" s="26" t="s">
+        <v>639</v>
+      </c>
+      <c r="G655" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="H655" s="26" t="s">
+        <v>194</v>
+      </c>
       <c r="I655" s="20"/>
       <c r="J655" s="19"/>
       <c r="K655" s="18"/>
@@ -36181,27 +36216,13 @@
     </row>
     <row r="656" ht="43.5" customHeight="1" spans="1:33">
       <c r="A656" s="6"/>
-      <c r="B656" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="C656" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D656" s="26">
-        <v>1555773066</v>
-      </c>
-      <c r="E656" s="16">
-        <v>10335909</v>
-      </c>
-      <c r="F656" s="26" t="s">
-        <v>639</v>
-      </c>
-      <c r="G656" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="H656" s="26" t="s">
-        <v>228</v>
-      </c>
+      <c r="B656" s="25"/>
+      <c r="C656" s="25"/>
+      <c r="D656" s="26"/>
+      <c r="E656" s="16"/>
+      <c r="F656" s="26"/>
+      <c r="G656" s="26"/>
+      <c r="H656" s="26"/>
       <c r="I656" s="20"/>
       <c r="J656" s="19"/>
       <c r="K656" s="18"/>
@@ -36230,13 +36251,27 @@
     </row>
     <row r="657" ht="43.5" customHeight="1" spans="1:33">
       <c r="A657" s="6"/>
-      <c r="B657" s="25"/>
-      <c r="C657" s="25"/>
-      <c r="D657" s="26"/>
-      <c r="E657" s="16"/>
-      <c r="F657" s="26"/>
-      <c r="G657" s="26"/>
-      <c r="H657" s="26"/>
+      <c r="B657" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C657" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D657" s="26">
+        <v>1555773066</v>
+      </c>
+      <c r="E657" s="16">
+        <v>10335909</v>
+      </c>
+      <c r="F657" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="G657" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="H657" s="26" t="s">
+        <v>228</v>
+      </c>
       <c r="I657" s="20"/>
       <c r="J657" s="19"/>
       <c r="K657" s="18"/>
@@ -36263,17 +36298,15 @@
       <c r="AF657" s="18"/>
       <c r="AG657" s="18"/>
     </row>
-    <row r="658" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A658" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="B658" s="10"/>
-      <c r="C658" s="10"/>
-      <c r="D658" s="10"/>
-      <c r="E658" s="11"/>
-      <c r="F658" s="10"/>
-      <c r="G658" s="10"/>
-      <c r="H658" s="10"/>
+    <row r="658" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A658" s="6"/>
+      <c r="B658" s="25"/>
+      <c r="C658" s="25"/>
+      <c r="D658" s="26"/>
+      <c r="E658" s="16"/>
+      <c r="F658" s="26"/>
+      <c r="G658" s="26"/>
+      <c r="H658" s="26"/>
       <c r="I658" s="20"/>
       <c r="J658" s="19"/>
       <c r="K658" s="18"/>
@@ -36300,29 +36333,17 @@
       <c r="AF658" s="18"/>
       <c r="AG658" s="18"/>
     </row>
-    <row r="659" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A659" s="9"/>
-      <c r="B659" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C659" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D659" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E659" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F659" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G659" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H659" s="8" t="s">
-        <v>6</v>
-      </c>
+    <row r="659" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A659" s="9">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="B659" s="10"/>
+      <c r="C659" s="10"/>
+      <c r="D659" s="10"/>
+      <c r="E659" s="11"/>
+      <c r="F659" s="10"/>
+      <c r="G659" s="10"/>
+      <c r="H659" s="10"/>
       <c r="I659" s="20"/>
       <c r="J659" s="19"/>
       <c r="K659" s="18"/>
@@ -36350,14 +36371,28 @@
       <c r="AG659" s="18"/>
     </row>
     <row r="660" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A660" s="6"/>
-      <c r="B660" s="14"/>
-      <c r="C660" s="14"/>
-      <c r="D660" s="15"/>
-      <c r="E660" s="16"/>
-      <c r="F660" s="15"/>
-      <c r="G660" s="15"/>
-      <c r="H660" s="15"/>
+      <c r="A660" s="9"/>
+      <c r="B660" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C660" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D660" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E660" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F660" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G660" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H660" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I660" s="20"/>
       <c r="J660" s="19"/>
       <c r="K660" s="18"/>
@@ -36386,27 +36421,13 @@
     </row>
     <row r="661" ht="43.5" customHeight="1" spans="1:33">
       <c r="A661" s="6"/>
-      <c r="B661" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C661" s="14">
-        <v>1.16666666666667</v>
-      </c>
-      <c r="D661" s="15">
-        <v>1013538846</v>
-      </c>
-      <c r="E661" s="16">
-        <v>10346498</v>
-      </c>
-      <c r="F661" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="G661" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H661" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="B661" s="14"/>
+      <c r="C661" s="14"/>
+      <c r="D661" s="15"/>
+      <c r="E661" s="16"/>
+      <c r="F661" s="15"/>
+      <c r="G661" s="15"/>
+      <c r="H661" s="15"/>
       <c r="I661" s="20"/>
       <c r="J661" s="19"/>
       <c r="K661" s="18"/>
@@ -36435,13 +36456,27 @@
     </row>
     <row r="662" ht="43.5" customHeight="1" spans="1:33">
       <c r="A662" s="6"/>
-      <c r="B662" s="14"/>
-      <c r="C662" s="14"/>
-      <c r="D662" s="15"/>
-      <c r="E662" s="16"/>
-      <c r="F662" s="15"/>
-      <c r="G662" s="15"/>
-      <c r="H662" s="15"/>
+      <c r="B662" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C662" s="14">
+        <v>1.16666666666667</v>
+      </c>
+      <c r="D662" s="15">
+        <v>1013538846</v>
+      </c>
+      <c r="E662" s="16">
+        <v>10346498</v>
+      </c>
+      <c r="F662" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="G662" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H662" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="I662" s="20"/>
       <c r="J662" s="19"/>
       <c r="K662" s="18"/>
@@ -36470,27 +36505,13 @@
     </row>
     <row r="663" ht="43.5" customHeight="1" spans="1:33">
       <c r="A663" s="6"/>
-      <c r="B663" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C663" s="14">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D663" s="15">
-        <v>0</v>
-      </c>
-      <c r="E663" s="16">
-        <v>10333590</v>
-      </c>
-      <c r="F663" s="15" t="s">
-        <v>641</v>
-      </c>
-      <c r="G663" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="H663" s="15" t="s">
-        <v>333</v>
-      </c>
+      <c r="B663" s="14"/>
+      <c r="C663" s="14"/>
+      <c r="D663" s="15"/>
+      <c r="E663" s="16"/>
+      <c r="F663" s="15"/>
+      <c r="G663" s="15"/>
+      <c r="H663" s="15"/>
       <c r="I663" s="20"/>
       <c r="J663" s="19"/>
       <c r="K663" s="18"/>
@@ -36526,10 +36547,10 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D664" s="15">
-        <v>1008361694</v>
+        <v>0</v>
       </c>
       <c r="E664" s="16">
-        <v>10333447</v>
+        <v>10333590</v>
       </c>
       <c r="F664" s="15" t="s">
         <v>642</v>
@@ -36568,13 +36589,27 @@
     </row>
     <row r="665" ht="43.5" customHeight="1" spans="1:33">
       <c r="A665" s="6"/>
-      <c r="B665" s="14"/>
-      <c r="C665" s="14"/>
-      <c r="D665" s="15"/>
-      <c r="E665" s="16"/>
-      <c r="F665" s="15"/>
-      <c r="G665" s="15"/>
-      <c r="H665" s="15"/>
+      <c r="B665" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C665" s="14">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D665" s="15">
+        <v>1008361694</v>
+      </c>
+      <c r="E665" s="16">
+        <v>10333447</v>
+      </c>
+      <c r="F665" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="G665" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="H665" s="15" t="s">
+        <v>333</v>
+      </c>
       <c r="I665" s="20"/>
       <c r="J665" s="19"/>
       <c r="K665" s="18"/>
@@ -36601,17 +36636,15 @@
       <c r="AF665" s="18"/>
       <c r="AG665" s="18"/>
     </row>
-    <row r="666" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A666" s="9">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="B666" s="10"/>
-      <c r="C666" s="10"/>
-      <c r="D666" s="10"/>
-      <c r="E666" s="11"/>
-      <c r="F666" s="10"/>
-      <c r="G666" s="10"/>
-      <c r="H666" s="10"/>
+    <row r="666" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A666" s="6"/>
+      <c r="B666" s="14"/>
+      <c r="C666" s="14"/>
+      <c r="D666" s="15"/>
+      <c r="E666" s="16"/>
+      <c r="F666" s="15"/>
+      <c r="G666" s="15"/>
+      <c r="H666" s="15"/>
       <c r="I666" s="20"/>
       <c r="J666" s="19"/>
       <c r="K666" s="18"/>
@@ -36638,29 +36671,17 @@
       <c r="AF666" s="18"/>
       <c r="AG666" s="18"/>
     </row>
-    <row r="667" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A667" s="12"/>
-      <c r="B667" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C667" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D667" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E667" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F667" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G667" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H667" s="8" t="s">
-        <v>6</v>
-      </c>
+    <row r="667" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A667" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="B667" s="10"/>
+      <c r="C667" s="10"/>
+      <c r="D667" s="10"/>
+      <c r="E667" s="11"/>
+      <c r="F667" s="10"/>
+      <c r="G667" s="10"/>
+      <c r="H667" s="10"/>
       <c r="I667" s="20"/>
       <c r="J667" s="19"/>
       <c r="K667" s="18"/>
@@ -36687,15 +36708,29 @@
       <c r="AF667" s="18"/>
       <c r="AG667" s="18"/>
     </row>
-    <row r="668" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A668" s="6"/>
-      <c r="B668" s="14"/>
-      <c r="C668" s="14"/>
-      <c r="D668" s="15"/>
-      <c r="E668" s="16"/>
-      <c r="F668" s="15"/>
-      <c r="G668" s="15"/>
-      <c r="H668" s="15"/>
+    <row r="668" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A668" s="12"/>
+      <c r="B668" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C668" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D668" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E668" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F668" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G668" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H668" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I668" s="20"/>
       <c r="J668" s="19"/>
       <c r="K668" s="18"/>
@@ -36724,27 +36759,13 @@
     </row>
     <row r="669" ht="47.25" customHeight="1" spans="1:33">
       <c r="A669" s="6"/>
-      <c r="B669" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C669" s="14">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="D669" s="15">
-        <v>1204716664</v>
-      </c>
-      <c r="E669" s="16">
-        <v>10334828</v>
-      </c>
-      <c r="F669" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="G669" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H669" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="B669" s="14"/>
+      <c r="C669" s="14"/>
+      <c r="D669" s="15"/>
+      <c r="E669" s="16"/>
+      <c r="F669" s="15"/>
+      <c r="G669" s="15"/>
+      <c r="H669" s="15"/>
       <c r="I669" s="20"/>
       <c r="J669" s="19"/>
       <c r="K669" s="18"/>
@@ -36773,13 +36794,27 @@
     </row>
     <row r="670" ht="47.25" customHeight="1" spans="1:33">
       <c r="A670" s="6"/>
-      <c r="B670" s="14"/>
-      <c r="C670" s="14"/>
-      <c r="D670" s="15"/>
-      <c r="E670" s="16"/>
-      <c r="F670" s="15"/>
-      <c r="G670" s="15"/>
-      <c r="H670" s="15"/>
+      <c r="B670" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C670" s="14">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="D670" s="15">
+        <v>1204716664</v>
+      </c>
+      <c r="E670" s="16">
+        <v>10334828</v>
+      </c>
+      <c r="F670" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="G670" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H670" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="I670" s="20"/>
       <c r="J670" s="19"/>
       <c r="K670" s="18"/>
@@ -36808,27 +36843,13 @@
     </row>
     <row r="671" ht="47.25" customHeight="1" spans="1:33">
       <c r="A671" s="6"/>
-      <c r="B671" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C671" s="14">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="D671" s="15">
-        <v>1097762201</v>
-      </c>
-      <c r="E671" s="16">
-        <v>10326498</v>
-      </c>
-      <c r="F671" s="15" t="s">
-        <v>644</v>
-      </c>
-      <c r="G671" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H671" s="15" t="s">
-        <v>645</v>
-      </c>
+      <c r="B671" s="14"/>
+      <c r="C671" s="14"/>
+      <c r="D671" s="15"/>
+      <c r="E671" s="16"/>
+      <c r="F671" s="15"/>
+      <c r="G671" s="15"/>
+      <c r="H671" s="15"/>
       <c r="I671" s="20"/>
       <c r="J671" s="19"/>
       <c r="K671" s="18"/>
@@ -36857,13 +36878,27 @@
     </row>
     <row r="672" ht="47.25" customHeight="1" spans="1:33">
       <c r="A672" s="6"/>
-      <c r="B672" s="14"/>
-      <c r="C672" s="14"/>
-      <c r="D672" s="15"/>
-      <c r="E672" s="16"/>
-      <c r="F672" s="15"/>
-      <c r="G672" s="15"/>
-      <c r="H672" s="15"/>
+      <c r="B672" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C672" s="14">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="D672" s="15">
+        <v>1097762201</v>
+      </c>
+      <c r="E672" s="16">
+        <v>10326498</v>
+      </c>
+      <c r="F672" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="G672" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H672" s="15" t="s">
+        <v>646</v>
+      </c>
       <c r="I672" s="20"/>
       <c r="J672" s="19"/>
       <c r="K672" s="18"/>
@@ -36892,27 +36927,13 @@
     </row>
     <row r="673" ht="47.25" customHeight="1" spans="1:33">
       <c r="A673" s="6"/>
-      <c r="B673" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C673" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D673" s="15" t="s">
-        <v>646</v>
-      </c>
-      <c r="E673" s="16">
-        <v>10335392</v>
-      </c>
-      <c r="F673" s="15" t="s">
-        <v>647</v>
-      </c>
-      <c r="G673" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H673" s="15" t="s">
-        <v>60</v>
-      </c>
+      <c r="B673" s="14"/>
+      <c r="C673" s="14"/>
+      <c r="D673" s="15"/>
+      <c r="E673" s="16"/>
+      <c r="F673" s="15"/>
+      <c r="G673" s="15"/>
+      <c r="H673" s="15"/>
       <c r="I673" s="20"/>
       <c r="J673" s="19"/>
       <c r="K673" s="18"/>
@@ -36945,13 +36966,13 @@
         <v>0.833333333333333</v>
       </c>
       <c r="C674" s="14">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="D674" s="15">
-        <v>1142234058</v>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D674" s="15" t="s">
+        <v>647</v>
       </c>
       <c r="E674" s="16">
-        <v>10325898</v>
+        <v>10335392</v>
       </c>
       <c r="F674" s="15" t="s">
         <v>648</v>
@@ -36960,7 +36981,7 @@
         <v>13</v>
       </c>
       <c r="H674" s="15" t="s">
-        <v>295</v>
+        <v>60</v>
       </c>
       <c r="I674" s="20"/>
       <c r="J674" s="19"/>
@@ -36997,10 +37018,10 @@
         <v>0.208333333333333</v>
       </c>
       <c r="D675" s="15">
-        <v>1148677126</v>
+        <v>1142234058</v>
       </c>
       <c r="E675" s="16">
-        <v>10320448</v>
+        <v>10325898</v>
       </c>
       <c r="F675" s="15" t="s">
         <v>649</v>
@@ -37009,7 +37030,7 @@
         <v>13</v>
       </c>
       <c r="H675" s="15" t="s">
-        <v>130</v>
+        <v>295</v>
       </c>
       <c r="I675" s="20"/>
       <c r="J675" s="19"/>
@@ -37046,10 +37067,10 @@
         <v>0.208333333333333</v>
       </c>
       <c r="D676" s="15">
-        <v>1123022074</v>
+        <v>1148677126</v>
       </c>
       <c r="E676" s="16">
-        <v>10330510</v>
+        <v>10320448</v>
       </c>
       <c r="F676" s="15" t="s">
         <v>650</v>
@@ -37058,7 +37079,7 @@
         <v>13</v>
       </c>
       <c r="H676" s="15" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="I676" s="20"/>
       <c r="J676" s="19"/>
@@ -37088,13 +37109,27 @@
     </row>
     <row r="677" ht="47.25" customHeight="1" spans="1:33">
       <c r="A677" s="6"/>
-      <c r="B677" s="14"/>
-      <c r="C677" s="14"/>
-      <c r="D677" s="15"/>
-      <c r="E677" s="16"/>
-      <c r="F677" s="15"/>
-      <c r="G677" s="15"/>
-      <c r="H677" s="15"/>
+      <c r="B677" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C677" s="14">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="D677" s="15">
+        <v>1123022074</v>
+      </c>
+      <c r="E677" s="16">
+        <v>10330510</v>
+      </c>
+      <c r="F677" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="G677" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H677" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="I677" s="20"/>
       <c r="J677" s="19"/>
       <c r="K677" s="18"/>
@@ -37123,27 +37158,13 @@
     </row>
     <row r="678" ht="47.25" customHeight="1" spans="1:33">
       <c r="A678" s="6"/>
-      <c r="B678" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C678" s="14">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="D678" s="15">
-        <v>1127552530</v>
-      </c>
-      <c r="E678" s="16">
-        <v>10314763</v>
-      </c>
-      <c r="F678" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="G678" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H678" s="15" t="s">
-        <v>159</v>
-      </c>
+      <c r="B678" s="14"/>
+      <c r="C678" s="14"/>
+      <c r="D678" s="15"/>
+      <c r="E678" s="16"/>
+      <c r="F678" s="15"/>
+      <c r="G678" s="15"/>
+      <c r="H678" s="15"/>
       <c r="I678" s="20"/>
       <c r="J678" s="19"/>
       <c r="K678" s="18"/>
@@ -37172,13 +37193,27 @@
     </row>
     <row r="679" ht="47.25" customHeight="1" spans="1:33">
       <c r="A679" s="6"/>
-      <c r="B679" s="14"/>
-      <c r="C679" s="14"/>
-      <c r="D679" s="15"/>
-      <c r="E679" s="16"/>
-      <c r="F679" s="15"/>
-      <c r="G679" s="15"/>
-      <c r="H679" s="15"/>
+      <c r="B679" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C679" s="14">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="D679" s="15">
+        <v>1127552530</v>
+      </c>
+      <c r="E679" s="16">
+        <v>10314763</v>
+      </c>
+      <c r="F679" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="G679" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H679" s="15" t="s">
+        <v>159</v>
+      </c>
       <c r="I679" s="20"/>
       <c r="J679" s="19"/>
       <c r="K679" s="18"/>
@@ -37205,17 +37240,15 @@
       <c r="AF679" s="18"/>
       <c r="AG679" s="18"/>
     </row>
-    <row r="680" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A680" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="B680" s="10"/>
-      <c r="C680" s="10"/>
-      <c r="D680" s="10"/>
-      <c r="E680" s="11"/>
-      <c r="F680" s="10"/>
-      <c r="G680" s="10"/>
-      <c r="H680" s="10"/>
+    <row r="680" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A680" s="6"/>
+      <c r="B680" s="14"/>
+      <c r="C680" s="14"/>
+      <c r="D680" s="15"/>
+      <c r="E680" s="16"/>
+      <c r="F680" s="15"/>
+      <c r="G680" s="15"/>
+      <c r="H680" s="15"/>
       <c r="I680" s="20"/>
       <c r="J680" s="19"/>
       <c r="K680" s="18"/>
@@ -37242,29 +37275,17 @@
       <c r="AF680" s="18"/>
       <c r="AG680" s="18"/>
     </row>
-    <row r="681" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A681" s="9"/>
-      <c r="B681" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C681" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D681" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E681" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F681" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G681" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H681" s="8" t="s">
-        <v>6</v>
-      </c>
+    <row r="681" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A681" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="B681" s="10"/>
+      <c r="C681" s="10"/>
+      <c r="D681" s="10"/>
+      <c r="E681" s="11"/>
+      <c r="F681" s="10"/>
+      <c r="G681" s="10"/>
+      <c r="H681" s="10"/>
       <c r="I681" s="20"/>
       <c r="J681" s="19"/>
       <c r="K681" s="18"/>
@@ -37291,15 +37312,29 @@
       <c r="AF681" s="18"/>
       <c r="AG681" s="18"/>
     </row>
-    <row r="682" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A682" s="6"/>
-      <c r="B682" s="14"/>
-      <c r="C682" s="14"/>
-      <c r="D682" s="15"/>
-      <c r="E682" s="16"/>
-      <c r="F682" s="15"/>
-      <c r="G682" s="15"/>
-      <c r="H682" s="15"/>
+    <row r="682" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A682" s="9"/>
+      <c r="B682" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C682" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D682" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E682" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F682" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G682" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H682" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I682" s="20"/>
       <c r="J682" s="19"/>
       <c r="K682" s="18"/>
@@ -37328,27 +37363,13 @@
     </row>
     <row r="683" ht="47.25" customHeight="1" spans="1:33">
       <c r="A683" s="6"/>
-      <c r="B683" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C683" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D683" s="15">
-        <v>1270041241</v>
-      </c>
-      <c r="E683" s="16">
-        <v>10348215</v>
-      </c>
-      <c r="F683" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="G683" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="H683" s="15" t="s">
-        <v>653</v>
-      </c>
+      <c r="B683" s="14"/>
+      <c r="C683" s="14"/>
+      <c r="D683" s="15"/>
+      <c r="E683" s="16"/>
+      <c r="F683" s="15"/>
+      <c r="G683" s="15"/>
+      <c r="H683" s="15"/>
       <c r="I683" s="20"/>
       <c r="J683" s="19"/>
       <c r="K683" s="18"/>
@@ -37384,19 +37405,19 @@
         <v>1.25</v>
       </c>
       <c r="D684" s="15">
-        <v>1556278711</v>
+        <v>1270041241</v>
       </c>
       <c r="E684" s="16">
-        <v>10348308</v>
+        <v>10348215</v>
       </c>
       <c r="F684" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="G684" s="15" t="s">
         <v>654</v>
       </c>
-      <c r="G684" s="15" t="s">
-        <v>653</v>
-      </c>
       <c r="H684" s="15" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="I684" s="20"/>
       <c r="J684" s="19"/>
@@ -37426,13 +37447,27 @@
     </row>
     <row r="685" ht="47.25" customHeight="1" spans="1:33">
       <c r="A685" s="6"/>
-      <c r="B685" s="14"/>
-      <c r="C685" s="14"/>
-      <c r="D685" s="15"/>
-      <c r="E685" s="16"/>
-      <c r="F685" s="15"/>
-      <c r="G685" s="15"/>
-      <c r="H685" s="15"/>
+      <c r="B685" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C685" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D685" s="15">
+        <v>1556278711</v>
+      </c>
+      <c r="E685" s="16">
+        <v>10348308</v>
+      </c>
+      <c r="F685" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="G685" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="H685" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="I685" s="20"/>
       <c r="J685" s="19"/>
       <c r="K685" s="18"/>
@@ -37461,27 +37496,13 @@
     </row>
     <row r="686" ht="47.25" customHeight="1" spans="1:33">
       <c r="A686" s="6"/>
-      <c r="B686" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C686" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="D686" s="15">
-        <v>1095892112</v>
-      </c>
-      <c r="E686" s="16">
-        <v>10314666</v>
-      </c>
-      <c r="F686" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="G686" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H686" s="15" t="s">
-        <v>77</v>
-      </c>
+      <c r="B686" s="14"/>
+      <c r="C686" s="14"/>
+      <c r="D686" s="15"/>
+      <c r="E686" s="16"/>
+      <c r="F686" s="15"/>
+      <c r="G686" s="15"/>
+      <c r="H686" s="15"/>
       <c r="I686" s="20"/>
       <c r="J686" s="19"/>
       <c r="K686" s="18"/>
@@ -37510,13 +37531,27 @@
     </row>
     <row r="687" ht="47.25" customHeight="1" spans="1:33">
       <c r="A687" s="6"/>
-      <c r="B687" s="14"/>
-      <c r="C687" s="14"/>
-      <c r="D687" s="15"/>
-      <c r="E687" s="16"/>
-      <c r="F687" s="15"/>
-      <c r="G687" s="15"/>
-      <c r="H687" s="15"/>
+      <c r="B687" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C687" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="D687" s="15">
+        <v>1095892112</v>
+      </c>
+      <c r="E687" s="16">
+        <v>10314666</v>
+      </c>
+      <c r="F687" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="G687" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H687" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="I687" s="20"/>
       <c r="J687" s="19"/>
       <c r="K687" s="18"/>
@@ -37545,27 +37580,13 @@
     </row>
     <row r="688" ht="47.25" customHeight="1" spans="1:33">
       <c r="A688" s="6"/>
-      <c r="B688" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C688" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D688" s="15">
-        <v>1070199150</v>
-      </c>
-      <c r="E688" s="16">
-        <v>10348249</v>
-      </c>
-      <c r="F688" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="G688" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H688" s="15" t="s">
-        <v>51</v>
-      </c>
+      <c r="B688" s="14"/>
+      <c r="C688" s="14"/>
+      <c r="D688" s="15"/>
+      <c r="E688" s="16"/>
+      <c r="F688" s="15"/>
+      <c r="G688" s="15"/>
+      <c r="H688" s="15"/>
       <c r="I688" s="20"/>
       <c r="J688" s="19"/>
       <c r="K688" s="18"/>
@@ -37601,10 +37622,10 @@
         <v>1.25</v>
       </c>
       <c r="D689" s="15">
-        <v>1552670605</v>
+        <v>1070199150</v>
       </c>
       <c r="E689" s="16">
-        <v>10348258</v>
+        <v>10348249</v>
       </c>
       <c r="F689" s="15" t="s">
         <v>656</v>
@@ -37613,7 +37634,7 @@
         <v>21</v>
       </c>
       <c r="H689" s="15" t="s">
-        <v>657</v>
+        <v>51</v>
       </c>
       <c r="I689" s="20"/>
       <c r="J689" s="19"/>
@@ -37650,19 +37671,19 @@
         <v>1.25</v>
       </c>
       <c r="D690" s="15">
-        <v>1205310663</v>
+        <v>1552670605</v>
       </c>
       <c r="E690" s="16">
-        <v>10348485</v>
+        <v>10348258</v>
       </c>
       <c r="F690" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G690" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H690" s="15" t="s">
-        <v>51</v>
+        <v>658</v>
       </c>
       <c r="I690" s="20"/>
       <c r="J690" s="19"/>
@@ -37696,13 +37717,13 @@
         <v>0.875</v>
       </c>
       <c r="C691" s="14">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="D691" s="15">
-        <v>1200090832</v>
+        <v>1205310663</v>
       </c>
       <c r="E691" s="16">
-        <v>10291155</v>
+        <v>10348485</v>
       </c>
       <c r="F691" s="15" t="s">
         <v>659</v>
@@ -37711,7 +37732,7 @@
         <v>21</v>
       </c>
       <c r="H691" s="15" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="I691" s="20"/>
       <c r="J691" s="19"/>
@@ -37741,13 +37762,27 @@
     </row>
     <row r="692" ht="47.25" customHeight="1" spans="1:33">
       <c r="A692" s="6"/>
-      <c r="B692" s="14"/>
-      <c r="C692" s="14"/>
-      <c r="D692" s="15"/>
-      <c r="E692" s="16"/>
-      <c r="F692" s="15"/>
-      <c r="G692" s="15"/>
-      <c r="H692" s="15"/>
+      <c r="B692" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C692" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="D692" s="15">
+        <v>1200090832</v>
+      </c>
+      <c r="E692" s="16">
+        <v>10291155</v>
+      </c>
+      <c r="F692" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="G692" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H692" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="I692" s="20"/>
       <c r="J692" s="19"/>
       <c r="K692" s="18"/>
@@ -37776,27 +37811,13 @@
     </row>
     <row r="693" ht="47.25" customHeight="1" spans="1:33">
       <c r="A693" s="6"/>
-      <c r="B693" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C693" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="D693" s="15">
-        <v>1115054271</v>
-      </c>
-      <c r="E693" s="16">
-        <v>10346083</v>
-      </c>
-      <c r="F693" s="15" t="s">
-        <v>660</v>
-      </c>
-      <c r="G693" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H693" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="B693" s="14"/>
+      <c r="C693" s="14"/>
+      <c r="D693" s="15"/>
+      <c r="E693" s="16"/>
+      <c r="F693" s="15"/>
+      <c r="G693" s="15"/>
+      <c r="H693" s="15"/>
       <c r="I693" s="20"/>
       <c r="J693" s="19"/>
       <c r="K693" s="18"/>
@@ -37825,13 +37846,27 @@
     </row>
     <row r="694" ht="47.25" customHeight="1" spans="1:33">
       <c r="A694" s="6"/>
-      <c r="B694" s="14"/>
-      <c r="C694" s="14"/>
-      <c r="D694" s="15"/>
-      <c r="E694" s="16"/>
-      <c r="F694" s="15"/>
-      <c r="G694" s="15"/>
-      <c r="H694" s="15"/>
+      <c r="B694" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C694" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="D694" s="15">
+        <v>1115054271</v>
+      </c>
+      <c r="E694" s="16">
+        <v>10346083</v>
+      </c>
+      <c r="F694" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="G694" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H694" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="I694" s="20"/>
       <c r="J694" s="19"/>
       <c r="K694" s="18"/>
@@ -37860,27 +37895,13 @@
     </row>
     <row r="695" ht="47.25" customHeight="1" spans="1:33">
       <c r="A695" s="6"/>
-      <c r="B695" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C695" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D695" s="15">
-        <v>1044330535</v>
-      </c>
-      <c r="E695" s="16">
-        <v>10348216</v>
-      </c>
-      <c r="F695" s="15" t="s">
-        <v>661</v>
-      </c>
-      <c r="G695" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H695" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="B695" s="14"/>
+      <c r="C695" s="14"/>
+      <c r="D695" s="15"/>
+      <c r="E695" s="16"/>
+      <c r="F695" s="15"/>
+      <c r="G695" s="15"/>
+      <c r="H695" s="15"/>
       <c r="I695" s="20"/>
       <c r="J695" s="19"/>
       <c r="K695" s="18"/>
@@ -37916,10 +37937,10 @@
         <v>1.25</v>
       </c>
       <c r="D696" s="15">
-        <v>1154442437</v>
+        <v>1044330535</v>
       </c>
       <c r="E696" s="16">
-        <v>10348306</v>
+        <v>10348216</v>
       </c>
       <c r="F696" s="15" t="s">
         <v>662</v>
@@ -37928,7 +37949,7 @@
         <v>13</v>
       </c>
       <c r="H696" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I696" s="20"/>
       <c r="J696" s="19"/>
@@ -37956,33 +37977,31 @@
       <c r="AF696" s="18"/>
       <c r="AG696" s="18"/>
     </row>
-    <row r="697" ht="48.75" customHeight="1" spans="1:33">
+    <row r="697" ht="47.25" customHeight="1" spans="1:33">
       <c r="A697" s="6"/>
-      <c r="B697" s="25">
+      <c r="B697" s="14">
         <v>0.875</v>
       </c>
-      <c r="C697" s="25">
+      <c r="C697" s="14">
         <v>1.25</v>
       </c>
-      <c r="D697" s="26">
-        <v>1095617866</v>
+      <c r="D697" s="15">
+        <v>1154442437</v>
       </c>
       <c r="E697" s="16">
-        <v>10344856</v>
-      </c>
-      <c r="F697" s="26" t="s">
+        <v>10348306</v>
+      </c>
+      <c r="F697" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="G697" s="26" t="s">
+      <c r="G697" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H697" s="27" t="s">
+      <c r="H697" s="15" t="s">
         <v>36</v>
       </c>
       <c r="I697" s="20"/>
-      <c r="J697" s="19" t="s">
-        <v>664</v>
-      </c>
+      <c r="J697" s="19"/>
       <c r="K697" s="18"/>
       <c r="L697" s="18"/>
       <c r="M697" s="18"/>
@@ -38007,17 +38026,33 @@
       <c r="AF697" s="18"/>
       <c r="AG697" s="18"/>
     </row>
-    <row r="698" ht="47.25" customHeight="1" spans="1:33">
+    <row r="698" ht="48.75" customHeight="1" spans="1:33">
       <c r="A698" s="6"/>
-      <c r="B698" s="14"/>
-      <c r="C698" s="14"/>
-      <c r="D698" s="15"/>
-      <c r="E698" s="16"/>
-      <c r="F698" s="15"/>
-      <c r="G698" s="15"/>
-      <c r="H698" s="15"/>
+      <c r="B698" s="29" t="s">
+        <v>664</v>
+      </c>
+      <c r="C698" s="29" t="s">
+        <v>664</v>
+      </c>
+      <c r="D698" s="26">
+        <v>1095617866</v>
+      </c>
+      <c r="E698" s="16">
+        <v>10344856</v>
+      </c>
+      <c r="F698" s="26" t="s">
+        <v>665</v>
+      </c>
+      <c r="G698" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H698" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="I698" s="20"/>
-      <c r="J698" s="19"/>
+      <c r="J698" s="19" t="s">
+        <v>666</v>
+      </c>
       <c r="K698" s="18"/>
       <c r="L698" s="18"/>
       <c r="M698" s="18"/>
@@ -38044,27 +38079,13 @@
     </row>
     <row r="699" ht="47.25" customHeight="1" spans="1:33">
       <c r="A699" s="6"/>
-      <c r="B699" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C699" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="D699" s="15">
-        <v>1055980976</v>
-      </c>
-      <c r="E699" s="16">
-        <v>10348043</v>
-      </c>
-      <c r="F699" s="15" t="s">
-        <v>665</v>
-      </c>
-      <c r="G699" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H699" s="27" t="s">
-        <v>151</v>
-      </c>
+      <c r="B699" s="14"/>
+      <c r="C699" s="14"/>
+      <c r="D699" s="15"/>
+      <c r="E699" s="16"/>
+      <c r="F699" s="15"/>
+      <c r="G699" s="15"/>
+      <c r="H699" s="15"/>
       <c r="I699" s="20"/>
       <c r="J699" s="19"/>
       <c r="K699" s="18"/>
@@ -38093,13 +38114,27 @@
     </row>
     <row r="700" ht="47.25" customHeight="1" spans="1:33">
       <c r="A700" s="6"/>
-      <c r="B700" s="14"/>
-      <c r="C700" s="14"/>
-      <c r="D700" s="15"/>
-      <c r="E700" s="16"/>
-      <c r="F700" s="15"/>
-      <c r="G700" s="15"/>
-      <c r="H700" s="15"/>
+      <c r="B700" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C700" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="D700" s="15">
+        <v>1055980976</v>
+      </c>
+      <c r="E700" s="16">
+        <v>10348043</v>
+      </c>
+      <c r="F700" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="G700" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H700" s="27" t="s">
+        <v>151</v>
+      </c>
       <c r="I700" s="20"/>
       <c r="J700" s="19"/>
       <c r="K700" s="18"/>
@@ -38128,27 +38163,13 @@
     </row>
     <row r="701" ht="47.25" customHeight="1" spans="1:33">
       <c r="A701" s="6"/>
-      <c r="B701" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C701" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D701" s="15">
-        <v>1154351904</v>
-      </c>
-      <c r="E701" s="16">
-        <v>10320291</v>
-      </c>
-      <c r="F701" s="15" t="s">
-        <v>666</v>
-      </c>
-      <c r="G701" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H701" s="15" t="s">
-        <v>143</v>
-      </c>
+      <c r="B701" s="14"/>
+      <c r="C701" s="14"/>
+      <c r="D701" s="15"/>
+      <c r="E701" s="16"/>
+      <c r="F701" s="15"/>
+      <c r="G701" s="15"/>
+      <c r="H701" s="15"/>
       <c r="I701" s="20"/>
       <c r="J701" s="19"/>
       <c r="K701" s="18"/>
@@ -38184,13 +38205,13 @@
         <v>1.25</v>
       </c>
       <c r="D702" s="15">
-        <v>1287010193</v>
+        <v>1154351904</v>
       </c>
       <c r="E702" s="16">
-        <v>10348552</v>
+        <v>10320291</v>
       </c>
       <c r="F702" s="15" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G702" s="15" t="s">
         <v>55</v>
@@ -38226,13 +38247,27 @@
     </row>
     <row r="703" ht="47.25" customHeight="1" spans="1:33">
       <c r="A703" s="6"/>
-      <c r="B703" s="14"/>
-      <c r="C703" s="14"/>
-      <c r="D703" s="15"/>
-      <c r="E703" s="16"/>
-      <c r="F703" s="15"/>
-      <c r="G703" s="15"/>
-      <c r="H703" s="15"/>
+      <c r="B703" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C703" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D703" s="15">
+        <v>1287010193</v>
+      </c>
+      <c r="E703" s="16">
+        <v>10348552</v>
+      </c>
+      <c r="F703" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="G703" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H703" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="I703" s="20"/>
       <c r="J703" s="19"/>
       <c r="K703" s="18"/>
@@ -38261,27 +38296,13 @@
     </row>
     <row r="704" ht="47.25" customHeight="1" spans="1:33">
       <c r="A704" s="6"/>
-      <c r="B704" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C704" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D704" s="15" t="s">
-        <v>668</v>
-      </c>
-      <c r="E704" s="16">
-        <v>10348277</v>
-      </c>
-      <c r="F704" s="15" t="s">
-        <v>669</v>
-      </c>
-      <c r="G704" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H704" s="15" t="s">
-        <v>670</v>
-      </c>
+      <c r="B704" s="14"/>
+      <c r="C704" s="14"/>
+      <c r="D704" s="15"/>
+      <c r="E704" s="16"/>
+      <c r="F704" s="15"/>
+      <c r="G704" s="15"/>
+      <c r="H704" s="15"/>
       <c r="I704" s="20"/>
       <c r="J704" s="19"/>
       <c r="K704" s="18"/>
@@ -38310,13 +38331,27 @@
     </row>
     <row r="705" ht="47.25" customHeight="1" spans="1:33">
       <c r="A705" s="6"/>
-      <c r="B705" s="14"/>
-      <c r="C705" s="14"/>
-      <c r="D705" s="15"/>
-      <c r="E705" s="16"/>
-      <c r="F705" s="15"/>
-      <c r="G705" s="15"/>
-      <c r="H705" s="15"/>
+      <c r="B705" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C705" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D705" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="E705" s="16">
+        <v>10348277</v>
+      </c>
+      <c r="F705" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="G705" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H705" s="15" t="s">
+        <v>672</v>
+      </c>
       <c r="I705" s="20"/>
       <c r="J705" s="19"/>
       <c r="K705" s="18"/>
@@ -38345,27 +38380,13 @@
     </row>
     <row r="706" ht="47.25" customHeight="1" spans="1:33">
       <c r="A706" s="6"/>
-      <c r="B706" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C706" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D706" s="15">
-        <v>1060392059</v>
-      </c>
-      <c r="E706" s="16">
-        <v>10344236</v>
-      </c>
-      <c r="F706" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="G706" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H706" s="15" t="s">
-        <v>186</v>
-      </c>
+      <c r="B706" s="14"/>
+      <c r="C706" s="14"/>
+      <c r="D706" s="15"/>
+      <c r="E706" s="16"/>
+      <c r="F706" s="15"/>
+      <c r="G706" s="15"/>
+      <c r="H706" s="15"/>
       <c r="I706" s="20"/>
       <c r="J706" s="19"/>
       <c r="K706" s="18"/>
@@ -38398,22 +38419,22 @@
         <v>0.875</v>
       </c>
       <c r="C707" s="14">
-        <v>1.25</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D707" s="15">
-        <v>1225921809</v>
+        <v>1060392059</v>
       </c>
       <c r="E707" s="16">
-        <v>10348222</v>
+        <v>10344236</v>
       </c>
       <c r="F707" s="15" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G707" s="15" t="s">
         <v>63</v>
       </c>
       <c r="H707" s="15" t="s">
-        <v>673</v>
+        <v>186</v>
       </c>
       <c r="I707" s="20"/>
       <c r="J707" s="19"/>
@@ -38450,10 +38471,10 @@
         <v>1.25</v>
       </c>
       <c r="D708" s="15">
-        <v>11567115272</v>
+        <v>1225921809</v>
       </c>
       <c r="E708" s="16">
-        <v>10348227</v>
+        <v>10348222</v>
       </c>
       <c r="F708" s="15" t="s">
         <v>674</v>
@@ -38462,7 +38483,7 @@
         <v>63</v>
       </c>
       <c r="H708" s="15" t="s">
-        <v>69</v>
+        <v>675</v>
       </c>
       <c r="I708" s="20"/>
       <c r="J708" s="19"/>
@@ -38499,19 +38520,19 @@
         <v>1.25</v>
       </c>
       <c r="D709" s="15">
-        <v>1013249320</v>
+        <v>11567115272</v>
       </c>
       <c r="E709" s="16">
-        <v>10292085</v>
+        <v>10348227</v>
       </c>
       <c r="F709" s="15" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G709" s="15" t="s">
         <v>63</v>
       </c>
       <c r="H709" s="15" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="I709" s="20"/>
       <c r="J709" s="19"/>
@@ -38548,19 +38569,19 @@
         <v>1.25</v>
       </c>
       <c r="D710" s="15">
-        <v>1222749900</v>
+        <v>1013249320</v>
       </c>
       <c r="E710" s="16">
-        <v>10347280</v>
+        <v>10292085</v>
       </c>
       <c r="F710" s="15" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G710" s="15" t="s">
         <v>63</v>
       </c>
       <c r="H710" s="15" t="s">
-        <v>673</v>
+        <v>186</v>
       </c>
       <c r="I710" s="20"/>
       <c r="J710" s="19"/>
@@ -38590,13 +38611,27 @@
     </row>
     <row r="711" ht="47.25" customHeight="1" spans="1:33">
       <c r="A711" s="6"/>
-      <c r="B711" s="14"/>
-      <c r="C711" s="14"/>
-      <c r="D711" s="15"/>
-      <c r="E711" s="16"/>
-      <c r="F711" s="15"/>
-      <c r="G711" s="15"/>
-      <c r="H711" s="15"/>
+      <c r="B711" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C711" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D711" s="15">
+        <v>1222749900</v>
+      </c>
+      <c r="E711" s="16">
+        <v>10347280</v>
+      </c>
+      <c r="F711" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="G711" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H711" s="15" t="s">
+        <v>675</v>
+      </c>
       <c r="I711" s="20"/>
       <c r="J711" s="19"/>
       <c r="K711" s="18"/>
@@ -38625,27 +38660,13 @@
     </row>
     <row r="712" ht="47.25" customHeight="1" spans="1:33">
       <c r="A712" s="6"/>
-      <c r="B712" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C712" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="D712" s="15">
-        <v>1061357183</v>
-      </c>
-      <c r="E712" s="16">
-        <v>10212362</v>
-      </c>
-      <c r="F712" s="15" t="s">
-        <v>677</v>
-      </c>
-      <c r="G712" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="H712" s="15" t="s">
-        <v>194</v>
-      </c>
+      <c r="B712" s="14"/>
+      <c r="C712" s="14"/>
+      <c r="D712" s="15"/>
+      <c r="E712" s="16"/>
+      <c r="F712" s="15"/>
+      <c r="G712" s="15"/>
+      <c r="H712" s="15"/>
       <c r="I712" s="20"/>
       <c r="J712" s="19"/>
       <c r="K712" s="18"/>
@@ -38678,22 +38699,22 @@
         <v>0.875</v>
       </c>
       <c r="C713" s="14">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="D713" s="15">
-        <v>1210997417</v>
+        <v>1061357183</v>
       </c>
       <c r="E713" s="16">
-        <v>10348264</v>
+        <v>10212362</v>
       </c>
       <c r="F713" s="15" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G713" s="15" t="s">
         <v>193</v>
       </c>
       <c r="H713" s="15" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="I713" s="20"/>
       <c r="J713" s="19"/>
@@ -38730,13 +38751,13 @@
         <v>1.25</v>
       </c>
       <c r="D714" s="15">
-        <v>1500488938</v>
+        <v>1210997417</v>
       </c>
       <c r="E714" s="16">
-        <v>10335911</v>
+        <v>10348264</v>
       </c>
       <c r="F714" s="15" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G714" s="15" t="s">
         <v>193</v>
@@ -38779,19 +38800,19 @@
         <v>1.25</v>
       </c>
       <c r="D715" s="15">
-        <v>1210789851</v>
+        <v>1500488938</v>
       </c>
       <c r="E715" s="16">
-        <v>10348269</v>
+        <v>10335911</v>
       </c>
       <c r="F715" s="15" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G715" s="15" t="s">
         <v>193</v>
       </c>
       <c r="H715" s="15" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="I715" s="20"/>
       <c r="J715" s="19"/>
@@ -38827,11 +38848,11 @@
       <c r="C716" s="14">
         <v>1.25</v>
       </c>
-      <c r="D716" s="15" t="s">
-        <v>681</v>
+      <c r="D716" s="15">
+        <v>1210789851</v>
       </c>
       <c r="E716" s="16">
-        <v>10347325</v>
+        <v>10348269</v>
       </c>
       <c r="F716" s="15" t="s">
         <v>682</v>
@@ -38840,7 +38861,7 @@
         <v>193</v>
       </c>
       <c r="H716" s="15" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="I716" s="20"/>
       <c r="J716" s="19"/>
@@ -38870,13 +38891,27 @@
     </row>
     <row r="717" ht="47.25" customHeight="1" spans="1:33">
       <c r="A717" s="6"/>
-      <c r="B717" s="14"/>
-      <c r="C717" s="14"/>
-      <c r="D717" s="15"/>
-      <c r="E717" s="16"/>
-      <c r="F717" s="15"/>
-      <c r="G717" s="15"/>
-      <c r="H717" s="15"/>
+      <c r="B717" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C717" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D717" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="E717" s="16">
+        <v>10347325</v>
+      </c>
+      <c r="F717" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="G717" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="H717" s="15" t="s">
+        <v>204</v>
+      </c>
       <c r="I717" s="20"/>
       <c r="J717" s="19"/>
       <c r="K717" s="18"/>
@@ -38909,22 +38944,22 @@
         <v>0.875</v>
       </c>
       <c r="C718" s="14">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="D718" s="15">
-        <v>1007614330</v>
+        <v>1228798735</v>
       </c>
       <c r="E718" s="16">
-        <v>10348293</v>
+        <v>10347758</v>
       </c>
       <c r="F718" s="15" t="s">
-        <v>571</v>
+        <v>685</v>
       </c>
       <c r="G718" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H718" s="15" t="s">
-        <v>683</v>
+        <v>193</v>
+      </c>
+      <c r="H718" s="28" t="s">
+        <v>204</v>
       </c>
       <c r="I718" s="20"/>
       <c r="J718" s="19"/>
@@ -38954,27 +38989,13 @@
     </row>
     <row r="719" ht="47.25" customHeight="1" spans="1:33">
       <c r="A719" s="6"/>
-      <c r="B719" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C719" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="D719" s="15">
-        <v>1065421169</v>
-      </c>
-      <c r="E719" s="16">
-        <v>10331020</v>
-      </c>
-      <c r="F719" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="G719" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H719" s="15" t="s">
-        <v>44</v>
-      </c>
+      <c r="B719" s="14"/>
+      <c r="C719" s="14"/>
+      <c r="D719" s="15"/>
+      <c r="E719" s="16"/>
+      <c r="F719" s="15"/>
+      <c r="G719" s="15"/>
+      <c r="H719" s="15"/>
       <c r="I719" s="20"/>
       <c r="J719" s="19"/>
       <c r="K719" s="18"/>
@@ -39009,20 +39030,20 @@
       <c r="C720" s="14">
         <v>1.25</v>
       </c>
-      <c r="D720" s="15" t="s">
-        <v>685</v>
+      <c r="D720" s="15">
+        <v>1007614330</v>
       </c>
       <c r="E720" s="16">
-        <v>10348300</v>
+        <v>10348293</v>
       </c>
       <c r="F720" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="G720" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H720" s="15" t="s">
         <v>686</v>
-      </c>
-      <c r="G720" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="H720" s="15" t="s">
-        <v>116</v>
       </c>
       <c r="I720" s="20"/>
       <c r="J720" s="19"/>
@@ -39056,22 +39077,22 @@
         <v>0.875</v>
       </c>
       <c r="C721" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D721" s="15" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="D721" s="15">
+        <v>1065421169</v>
+      </c>
+      <c r="E721" s="16">
+        <v>10331020</v>
+      </c>
+      <c r="F721" s="15" t="s">
         <v>687</v>
       </c>
-      <c r="E721" s="16">
-        <v>10348303</v>
-      </c>
-      <c r="F721" s="15" t="s">
-        <v>688</v>
-      </c>
       <c r="G721" s="15" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="H721" s="15" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="I721" s="20"/>
       <c r="J721" s="19"/>
@@ -39101,13 +39122,27 @@
     </row>
     <row r="722" ht="47.25" customHeight="1" spans="1:33">
       <c r="A722" s="6"/>
-      <c r="B722" s="14"/>
-      <c r="C722" s="14"/>
-      <c r="D722" s="15"/>
-      <c r="E722" s="16"/>
-      <c r="F722" s="15"/>
-      <c r="G722" s="15"/>
-      <c r="H722" s="15"/>
+      <c r="B722" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C722" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D722" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="E722" s="16">
+        <v>10348300</v>
+      </c>
+      <c r="F722" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="G722" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="H722" s="15" t="s">
+        <v>116</v>
+      </c>
       <c r="I722" s="20"/>
       <c r="J722" s="19"/>
       <c r="K722" s="18"/>
@@ -39142,20 +39177,20 @@
       <c r="C723" s="14">
         <v>1.25</v>
       </c>
-      <c r="D723" s="15">
-        <v>1140254052</v>
+      <c r="D723" s="15" t="s">
+        <v>690</v>
       </c>
       <c r="E723" s="16">
-        <v>10344240</v>
+        <v>10348303</v>
       </c>
       <c r="F723" s="15" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G723" s="15" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="H723" s="15" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="I723" s="20"/>
       <c r="J723" s="19"/>
@@ -39218,17 +39253,29 @@
       <c r="AF724" s="18"/>
       <c r="AG724" s="18"/>
     </row>
-    <row r="725" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A725" s="9">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="B725" s="10"/>
-      <c r="C725" s="10"/>
-      <c r="D725" s="10"/>
-      <c r="E725" s="11"/>
-      <c r="F725" s="10"/>
-      <c r="G725" s="10"/>
-      <c r="H725" s="10"/>
+    <row r="725" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A725" s="6"/>
+      <c r="B725" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C725" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D725" s="15">
+        <v>1140254052</v>
+      </c>
+      <c r="E725" s="16">
+        <v>10344240</v>
+      </c>
+      <c r="F725" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="G725" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H725" s="15" t="s">
+        <v>219</v>
+      </c>
       <c r="I725" s="20"/>
       <c r="J725" s="19"/>
       <c r="K725" s="18"/>
@@ -39255,29 +39302,15 @@
       <c r="AF725" s="18"/>
       <c r="AG725" s="18"/>
     </row>
-    <row r="726" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A726" s="9"/>
-      <c r="B726" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C726" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D726" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E726" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F726" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G726" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H726" s="8" t="s">
-        <v>6</v>
-      </c>
+    <row r="726" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A726" s="6"/>
+      <c r="B726" s="14"/>
+      <c r="C726" s="14"/>
+      <c r="D726" s="15"/>
+      <c r="E726" s="16"/>
+      <c r="F726" s="15"/>
+      <c r="G726" s="15"/>
+      <c r="H726" s="15"/>
       <c r="I726" s="20"/>
       <c r="J726" s="19"/>
       <c r="K726" s="18"/>
@@ -39304,15 +39337,17 @@
       <c r="AF726" s="18"/>
       <c r="AG726" s="18"/>
     </row>
-    <row r="727" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A727" s="6"/>
-      <c r="B727" s="14"/>
-      <c r="C727" s="14"/>
-      <c r="D727" s="15"/>
-      <c r="E727" s="16"/>
-      <c r="F727" s="15"/>
-      <c r="G727" s="15"/>
-      <c r="H727" s="15"/>
+    <row r="727" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A727" s="9">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="B727" s="10"/>
+      <c r="C727" s="10"/>
+      <c r="D727" s="10"/>
+      <c r="E727" s="11"/>
+      <c r="F727" s="10"/>
+      <c r="G727" s="10"/>
+      <c r="H727" s="10"/>
       <c r="I727" s="20"/>
       <c r="J727" s="19"/>
       <c r="K727" s="18"/>
@@ -39339,28 +39374,28 @@
       <c r="AF727" s="18"/>
       <c r="AG727" s="18"/>
     </row>
-    <row r="728" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A728" s="6"/>
-      <c r="B728" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C728" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D728" s="15">
-        <v>1204888981</v>
-      </c>
-      <c r="E728" s="16">
-        <v>10304619</v>
-      </c>
-      <c r="F728" s="15" t="s">
-        <v>690</v>
-      </c>
-      <c r="G728" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H728" s="15" t="s">
-        <v>107</v>
+    <row r="728" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A728" s="9"/>
+      <c r="B728" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C728" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D728" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E728" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F728" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G728" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H728" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="I728" s="20"/>
       <c r="J728" s="19"/>
@@ -39432,19 +39467,19 @@
         <v>0.291666666666667</v>
       </c>
       <c r="D730" s="15">
-        <v>1148926381</v>
+        <v>1204888981</v>
       </c>
       <c r="E730" s="16">
-        <v>10331442</v>
+        <v>10304619</v>
       </c>
       <c r="F730" s="15" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="G730" s="15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H730" s="15" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="I730" s="20"/>
       <c r="J730" s="19"/>
@@ -39513,22 +39548,22 @@
         <v>0.916666666666667</v>
       </c>
       <c r="C732" s="14">
-        <v>1.29166666666667</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="D732" s="15">
-        <v>1092636192</v>
+        <v>1148926381</v>
       </c>
       <c r="E732" s="16">
-        <v>10274975</v>
+        <v>10331442</v>
       </c>
       <c r="F732" s="15" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G732" s="15" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="H732" s="15" t="s">
-        <v>693</v>
+        <v>38</v>
       </c>
       <c r="I732" s="20"/>
       <c r="J732" s="19"/>
@@ -39597,22 +39632,22 @@
         <v>0.916666666666667</v>
       </c>
       <c r="C734" s="14">
-        <v>0.291666666666667</v>
+        <v>1.29166666666667</v>
       </c>
       <c r="D734" s="15">
-        <v>1552408293</v>
+        <v>1092636192</v>
       </c>
       <c r="E734" s="16">
-        <v>10314762</v>
+        <v>10274975</v>
       </c>
       <c r="F734" s="15" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G734" s="15" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="H734" s="15" t="s">
-        <v>116</v>
+        <v>696</v>
       </c>
       <c r="I734" s="20"/>
       <c r="J734" s="19"/>
@@ -39642,27 +39677,13 @@
     </row>
     <row r="735" ht="47.25" customHeight="1" spans="1:33">
       <c r="A735" s="6"/>
-      <c r="B735" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C735" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D735" s="15">
-        <v>1108958950</v>
-      </c>
-      <c r="E735" s="16">
-        <v>10331082</v>
-      </c>
-      <c r="F735" s="15" t="s">
-        <v>695</v>
-      </c>
-      <c r="G735" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="H735" s="15" t="s">
-        <v>116</v>
-      </c>
+      <c r="B735" s="14"/>
+      <c r="C735" s="14"/>
+      <c r="D735" s="15"/>
+      <c r="E735" s="16"/>
+      <c r="F735" s="15"/>
+      <c r="G735" s="15"/>
+      <c r="H735" s="15"/>
       <c r="I735" s="20"/>
       <c r="J735" s="19"/>
       <c r="K735" s="18"/>
@@ -39691,13 +39712,27 @@
     </row>
     <row r="736" ht="47.25" customHeight="1" spans="1:33">
       <c r="A736" s="6"/>
-      <c r="B736" s="14"/>
-      <c r="C736" s="14"/>
-      <c r="D736" s="15"/>
-      <c r="E736" s="16"/>
-      <c r="F736" s="15"/>
-      <c r="G736" s="15"/>
-      <c r="H736" s="15"/>
+      <c r="B736" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C736" s="14">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D736" s="15">
+        <v>1552408293</v>
+      </c>
+      <c r="E736" s="16">
+        <v>10314762</v>
+      </c>
+      <c r="F736" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="G736" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="H736" s="15" t="s">
+        <v>116</v>
+      </c>
       <c r="I736" s="20"/>
       <c r="J736" s="19"/>
       <c r="K736" s="18"/>
@@ -39733,19 +39768,19 @@
         <v>0.291666666666667</v>
       </c>
       <c r="D737" s="15">
-        <v>1550563697</v>
+        <v>1108958950</v>
       </c>
       <c r="E737" s="16">
-        <v>10280906</v>
+        <v>10331082</v>
       </c>
       <c r="F737" s="15" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G737" s="15" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="H737" s="15" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="I737" s="20"/>
       <c r="J737" s="19"/>
@@ -39808,17 +39843,29 @@
       <c r="AF738" s="18"/>
       <c r="AG738" s="18"/>
     </row>
-    <row r="739" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A739" s="9">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="B739" s="10"/>
-      <c r="C739" s="10"/>
-      <c r="D739" s="10"/>
-      <c r="E739" s="11"/>
-      <c r="F739" s="10"/>
-      <c r="G739" s="10"/>
-      <c r="H739" s="10"/>
+    <row r="739" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A739" s="6"/>
+      <c r="B739" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C739" s="14">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D739" s="15">
+        <v>1550563697</v>
+      </c>
+      <c r="E739" s="16">
+        <v>10280906</v>
+      </c>
+      <c r="F739" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="G739" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H739" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="I739" s="20"/>
       <c r="J739" s="19"/>
       <c r="K739" s="18"/>
@@ -39845,29 +39892,15 @@
       <c r="AF739" s="18"/>
       <c r="AG739" s="18"/>
     </row>
-    <row r="740" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A740" s="12"/>
-      <c r="B740" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C740" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D740" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E740" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F740" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G740" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H740" s="8" t="s">
-        <v>6</v>
-      </c>
+    <row r="740" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A740" s="6"/>
+      <c r="B740" s="14"/>
+      <c r="C740" s="14"/>
+      <c r="D740" s="15"/>
+      <c r="E740" s="16"/>
+      <c r="F740" s="15"/>
+      <c r="G740" s="15"/>
+      <c r="H740" s="15"/>
       <c r="I740" s="20"/>
       <c r="J740" s="19"/>
       <c r="K740" s="18"/>
@@ -39894,15 +39927,17 @@
       <c r="AF740" s="18"/>
       <c r="AG740" s="18"/>
     </row>
-    <row r="741" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A741" s="6"/>
-      <c r="B741" s="14"/>
-      <c r="C741" s="14"/>
-      <c r="D741" s="15"/>
-      <c r="E741" s="16"/>
-      <c r="F741" s="15"/>
-      <c r="G741" s="15"/>
-      <c r="H741" s="15"/>
+    <row r="741" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A741" s="9">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="B741" s="10"/>
+      <c r="C741" s="10"/>
+      <c r="D741" s="10"/>
+      <c r="E741" s="11"/>
+      <c r="F741" s="10"/>
+      <c r="G741" s="10"/>
+      <c r="H741" s="10"/>
       <c r="I741" s="20"/>
       <c r="J741" s="19"/>
       <c r="K741" s="18"/>
@@ -39930,27 +39965,27 @@
       <c r="AG741" s="18"/>
     </row>
     <row r="742" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A742" s="6"/>
-      <c r="B742" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C742" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D742" s="15">
-        <v>1024731489</v>
-      </c>
-      <c r="E742" s="16">
-        <v>10344861</v>
-      </c>
-      <c r="F742" s="15" t="s">
-        <v>697</v>
-      </c>
-      <c r="G742" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H742" s="15" t="s">
-        <v>51</v>
+      <c r="A742" s="12"/>
+      <c r="B742" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C742" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D742" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E742" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F742" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G742" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H742" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="I742" s="20"/>
       <c r="J742" s="19"/>
@@ -39980,27 +40015,13 @@
     </row>
     <row r="743" ht="43.5" customHeight="1" spans="1:33">
       <c r="A743" s="6"/>
-      <c r="B743" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C743" s="14">
-        <v>1.33333333333333</v>
-      </c>
-      <c r="D743" s="15" t="s">
-        <v>698</v>
-      </c>
-      <c r="E743" s="16">
-        <v>10346150</v>
-      </c>
-      <c r="F743" s="15" t="s">
-        <v>699</v>
-      </c>
-      <c r="G743" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H743" s="15" t="s">
-        <v>51</v>
-      </c>
+      <c r="B743" s="14"/>
+      <c r="C743" s="14"/>
+      <c r="D743" s="15"/>
+      <c r="E743" s="16"/>
+      <c r="F743" s="15"/>
+      <c r="G743" s="15"/>
+      <c r="H743" s="15"/>
       <c r="I743" s="20"/>
       <c r="J743" s="19"/>
       <c r="K743" s="18"/>
@@ -40029,13 +40050,27 @@
     </row>
     <row r="744" ht="43.5" customHeight="1" spans="1:33">
       <c r="A744" s="6"/>
-      <c r="B744" s="14"/>
-      <c r="C744" s="14"/>
-      <c r="D744" s="15"/>
-      <c r="E744" s="16"/>
-      <c r="F744" s="15"/>
-      <c r="G744" s="15"/>
-      <c r="H744" s="15"/>
+      <c r="B744" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C744" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D744" s="15">
+        <v>1024731489</v>
+      </c>
+      <c r="E744" s="16">
+        <v>10344861</v>
+      </c>
+      <c r="F744" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="G744" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H744" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="I744" s="20"/>
       <c r="J744" s="19"/>
       <c r="K744" s="18"/>
@@ -40068,22 +40103,22 @@
         <v>0.958333333333333</v>
       </c>
       <c r="C745" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D745" s="15">
-        <v>1552032039</v>
+        <v>1.33333333333333</v>
+      </c>
+      <c r="D745" s="15" t="s">
+        <v>701</v>
       </c>
       <c r="E745" s="16">
-        <v>10313972</v>
+        <v>10346150</v>
       </c>
       <c r="F745" s="15" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="G745" s="15" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H745" s="15" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I745" s="20"/>
       <c r="J745" s="19"/>
@@ -40146,33 +40181,31 @@
       <c r="AF746" s="18"/>
       <c r="AG746" s="18"/>
     </row>
-    <row r="747" ht="48.75" customHeight="1" spans="1:33">
+    <row r="747" ht="43.5" customHeight="1" spans="1:33">
       <c r="A747" s="6"/>
-      <c r="B747" s="25">
+      <c r="B747" s="14">
         <v>0.958333333333333</v>
       </c>
-      <c r="C747" s="25">
+      <c r="C747" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D747" s="26" t="s">
-        <v>701</v>
+      <c r="D747" s="15">
+        <v>1552032039</v>
       </c>
       <c r="E747" s="16">
-        <v>10323972</v>
-      </c>
-      <c r="F747" s="26" t="s">
-        <v>702</v>
-      </c>
-      <c r="G747" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H747" s="27" t="s">
-        <v>60</v>
+        <v>10313972</v>
+      </c>
+      <c r="F747" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="G747" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H747" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="I747" s="20"/>
-      <c r="J747" s="19" t="s">
-        <v>664</v>
-      </c>
+      <c r="J747" s="19"/>
       <c r="K747" s="18"/>
       <c r="L747" s="18"/>
       <c r="M747" s="18"/>
@@ -40232,31 +40265,33 @@
       <c r="AF748" s="18"/>
       <c r="AG748" s="18"/>
     </row>
-    <row r="749" ht="43.5" customHeight="1" spans="1:33">
+    <row r="749" ht="48.75" customHeight="1" spans="1:33">
       <c r="A749" s="6"/>
-      <c r="B749" s="14">
+      <c r="B749" s="25">
         <v>0.958333333333333</v>
       </c>
-      <c r="C749" s="14">
+      <c r="C749" s="25">
         <v>0.333333333333333</v>
       </c>
-      <c r="D749" s="15">
-        <v>1552456793</v>
+      <c r="D749" s="26" t="s">
+        <v>704</v>
       </c>
       <c r="E749" s="16">
-        <v>10344749</v>
-      </c>
-      <c r="F749" s="15" t="s">
-        <v>703</v>
-      </c>
-      <c r="G749" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H749" s="15" t="s">
-        <v>66</v>
+        <v>10323972</v>
+      </c>
+      <c r="F749" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="G749" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H749" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="I749" s="20"/>
-      <c r="J749" s="19"/>
+      <c r="J749" s="19" t="s">
+        <v>666</v>
+      </c>
       <c r="K749" s="18"/>
       <c r="L749" s="18"/>
       <c r="M749" s="18"/>
@@ -40283,27 +40318,13 @@
     </row>
     <row r="750" ht="43.5" customHeight="1" spans="1:33">
       <c r="A750" s="6"/>
-      <c r="B750" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C750" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D750" s="15">
-        <v>1100286082</v>
-      </c>
-      <c r="E750" s="16">
-        <v>10346644</v>
-      </c>
-      <c r="F750" s="15" t="s">
-        <v>704</v>
-      </c>
-      <c r="G750" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H750" s="15" t="s">
-        <v>186</v>
-      </c>
+      <c r="B750" s="14"/>
+      <c r="C750" s="14"/>
+      <c r="D750" s="15"/>
+      <c r="E750" s="16"/>
+      <c r="F750" s="15"/>
+      <c r="G750" s="15"/>
+      <c r="H750" s="15"/>
       <c r="I750" s="20"/>
       <c r="J750" s="19"/>
       <c r="K750" s="18"/>
@@ -40332,13 +40353,27 @@
     </row>
     <row r="751" ht="43.5" customHeight="1" spans="1:33">
       <c r="A751" s="6"/>
-      <c r="B751" s="14"/>
-      <c r="C751" s="14"/>
-      <c r="D751" s="15"/>
-      <c r="E751" s="16"/>
-      <c r="F751" s="15"/>
-      <c r="G751" s="15"/>
-      <c r="H751" s="15"/>
+      <c r="B751" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C751" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D751" s="15">
+        <v>1552456793</v>
+      </c>
+      <c r="E751" s="16">
+        <v>10344749</v>
+      </c>
+      <c r="F751" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="G751" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H751" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="I751" s="20"/>
       <c r="J751" s="19"/>
       <c r="K751" s="18"/>
@@ -40374,19 +40409,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D752" s="15">
-        <v>1110689559</v>
+        <v>1100286082</v>
       </c>
       <c r="E752" s="16">
-        <v>10316740</v>
+        <v>10346644</v>
       </c>
       <c r="F752" s="15" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="G752" s="15" t="s">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="H752" s="15" t="s">
-        <v>455</v>
+        <v>186</v>
       </c>
       <c r="I752" s="20"/>
       <c r="J752" s="19"/>
@@ -40416,27 +40451,13 @@
     </row>
     <row r="753" ht="43.5" customHeight="1" spans="1:33">
       <c r="A753" s="6"/>
-      <c r="B753" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C753" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D753" s="15">
-        <v>1145149773</v>
-      </c>
-      <c r="E753" s="16">
-        <v>10344235</v>
-      </c>
-      <c r="F753" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="G753" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="H753" s="15" t="s">
-        <v>194</v>
-      </c>
+      <c r="B753" s="14"/>
+      <c r="C753" s="14"/>
+      <c r="D753" s="15"/>
+      <c r="E753" s="16"/>
+      <c r="F753" s="15"/>
+      <c r="G753" s="15"/>
+      <c r="H753" s="15"/>
       <c r="I753" s="20"/>
       <c r="J753" s="19"/>
       <c r="K753" s="18"/>
@@ -40472,19 +40493,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D754" s="15">
-        <v>1118972534</v>
+        <v>1110689559</v>
       </c>
       <c r="E754" s="16">
-        <v>10331702</v>
+        <v>10316740</v>
       </c>
       <c r="F754" s="15" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G754" s="15" t="s">
         <v>193</v>
       </c>
       <c r="H754" s="15" t="s">
-        <v>330</v>
+        <v>455</v>
       </c>
       <c r="I754" s="20"/>
       <c r="J754" s="19"/>
@@ -40514,13 +40535,27 @@
     </row>
     <row r="755" ht="43.5" customHeight="1" spans="1:33">
       <c r="A755" s="6"/>
-      <c r="B755" s="14"/>
-      <c r="C755" s="14"/>
-      <c r="D755" s="15"/>
-      <c r="E755" s="16"/>
-      <c r="F755" s="15"/>
-      <c r="G755" s="15"/>
-      <c r="H755" s="15"/>
+      <c r="B755" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C755" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D755" s="15">
+        <v>1145149773</v>
+      </c>
+      <c r="E755" s="16">
+        <v>10344235</v>
+      </c>
+      <c r="F755" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="G755" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="H755" s="15" t="s">
+        <v>194</v>
+      </c>
       <c r="I755" s="20"/>
       <c r="J755" s="19"/>
       <c r="K755" s="18"/>
@@ -40556,19 +40591,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D756" s="15">
-        <v>1020488691</v>
+        <v>1118972534</v>
       </c>
       <c r="E756" s="16">
-        <v>10346474</v>
+        <v>10331702</v>
       </c>
       <c r="F756" s="15" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G756" s="15" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="H756" s="15" t="s">
-        <v>116</v>
+        <v>330</v>
       </c>
       <c r="I756" s="20"/>
       <c r="J756" s="19"/>
@@ -40640,19 +40675,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D758" s="15">
-        <v>1501002468</v>
+        <v>1020488691</v>
       </c>
       <c r="E758" s="16">
-        <v>10346555</v>
+        <v>10346474</v>
       </c>
       <c r="F758" s="15" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G758" s="15" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="H758" s="15" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="I758" s="20"/>
       <c r="J758" s="19"/>
@@ -40715,15 +40750,29 @@
       <c r="AF759" s="18"/>
       <c r="AG759" s="18"/>
     </row>
-    <row r="760" ht="15" customHeight="1" spans="1:33">
+    <row r="760" ht="43.5" customHeight="1" spans="1:33">
       <c r="A760" s="6"/>
-      <c r="B760" s="28"/>
-      <c r="C760" s="28"/>
-      <c r="D760" s="29"/>
-      <c r="E760" s="30"/>
-      <c r="F760" s="29"/>
-      <c r="G760" s="29"/>
-      <c r="H760" s="29"/>
+      <c r="B760" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C760" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D760" s="15">
+        <v>1501002468</v>
+      </c>
+      <c r="E760" s="16">
+        <v>10346555</v>
+      </c>
+      <c r="F760" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="G760" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H760" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="I760" s="20"/>
       <c r="J760" s="19"/>
       <c r="K760" s="18"/>
@@ -40750,6 +40799,76 @@
       <c r="AF760" s="18"/>
       <c r="AG760" s="18"/>
     </row>
+    <row r="761" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A761" s="6"/>
+      <c r="B761" s="14"/>
+      <c r="C761" s="14"/>
+      <c r="D761" s="15"/>
+      <c r="E761" s="16"/>
+      <c r="F761" s="15"/>
+      <c r="G761" s="15"/>
+      <c r="H761" s="15"/>
+      <c r="I761" s="20"/>
+      <c r="J761" s="19"/>
+      <c r="K761" s="18"/>
+      <c r="L761" s="18"/>
+      <c r="M761" s="18"/>
+      <c r="N761" s="18"/>
+      <c r="O761" s="18"/>
+      <c r="P761" s="18"/>
+      <c r="Q761" s="18"/>
+      <c r="R761" s="18"/>
+      <c r="S761" s="18"/>
+      <c r="T761" s="18"/>
+      <c r="U761" s="18"/>
+      <c r="V761" s="18"/>
+      <c r="W761" s="18"/>
+      <c r="X761" s="18"/>
+      <c r="Y761" s="18"/>
+      <c r="Z761" s="18"/>
+      <c r="AA761" s="18"/>
+      <c r="AB761" s="18"/>
+      <c r="AC761" s="18"/>
+      <c r="AD761" s="18"/>
+      <c r="AE761" s="18"/>
+      <c r="AF761" s="18"/>
+      <c r="AG761" s="18"/>
+    </row>
+    <row r="762" ht="15" customHeight="1" spans="1:33">
+      <c r="A762" s="6"/>
+      <c r="B762" s="30"/>
+      <c r="C762" s="30"/>
+      <c r="D762" s="31"/>
+      <c r="E762" s="32"/>
+      <c r="F762" s="31"/>
+      <c r="G762" s="31"/>
+      <c r="H762" s="31"/>
+      <c r="I762" s="20"/>
+      <c r="J762" s="19"/>
+      <c r="K762" s="18"/>
+      <c r="L762" s="18"/>
+      <c r="M762" s="18"/>
+      <c r="N762" s="18"/>
+      <c r="O762" s="18"/>
+      <c r="P762" s="18"/>
+      <c r="Q762" s="18"/>
+      <c r="R762" s="18"/>
+      <c r="S762" s="18"/>
+      <c r="T762" s="18"/>
+      <c r="U762" s="18"/>
+      <c r="V762" s="18"/>
+      <c r="W762" s="18"/>
+      <c r="X762" s="18"/>
+      <c r="Y762" s="18"/>
+      <c r="Z762" s="18"/>
+      <c r="AA762" s="18"/>
+      <c r="AB762" s="18"/>
+      <c r="AC762" s="18"/>
+      <c r="AD762" s="18"/>
+      <c r="AE762" s="18"/>
+      <c r="AF762" s="18"/>
+      <c r="AG762" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A2:A3"/>
@@ -40763,13 +40882,13 @@
     <mergeCell ref="A454:A455"/>
     <mergeCell ref="A478:A479"/>
     <mergeCell ref="A571:A572"/>
-    <mergeCell ref="A618:A619"/>
-    <mergeCell ref="A627:A628"/>
-    <mergeCell ref="A658:A659"/>
-    <mergeCell ref="A666:A667"/>
-    <mergeCell ref="A680:A681"/>
-    <mergeCell ref="A725:A726"/>
-    <mergeCell ref="A739:A740"/>
+    <mergeCell ref="A619:A620"/>
+    <mergeCell ref="A628:A629"/>
+    <mergeCell ref="A659:A660"/>
+    <mergeCell ref="A667:A668"/>
+    <mergeCell ref="A681:A682"/>
+    <mergeCell ref="A727:A728"/>
+    <mergeCell ref="A741:A742"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
